--- a/all_firm_case_all_stores.xlsx
+++ b/all_firm_case_all_stores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aliciawongel/Library/Group Containers/G69SCX94XU.duck/Library/Application Support/duck/Volumes.noindex/DPB-DGE Data Transfer Node/nobackup/scratch/awongel/clab_all_firm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8E8E8E-D879-CC40-B42F-9C5ECC55BE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F43B06-2F5E-D541-9EBD-2F88236B9065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="32140" windowHeight="20300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="36340" windowHeight="20800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="case_input_intermodel_one_node_" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="269">
   <si>
     <t>Note that demand has no decisions.</t>
   </si>
@@ -336,9 +336,6 @@
     <t>costs_path</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/PyPSA/technology-data/master/outputs/costs_2020.csv</t>
-  </si>
-  <si>
     <t>direct air capture</t>
   </si>
   <si>
@@ -387,12 +384,6 @@
     <t>Cost calculations</t>
   </si>
   <si>
-    <t>Hunter et al. Techno-Economic Analysis of Long-Duration Energy Storage and Flexible Power Generation Technologies to Support High-Variable Renewable Energy Grids. Joule 2021, 5 (8), 2077–2101.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://doi.org/10.1016/j.joule.2021.06.018.</t>
-  </si>
-  <si>
     <t>Discount rate</t>
   </si>
   <si>
@@ -429,12 +420,6 @@
     <t>Note: carrier allows to group different technologies</t>
   </si>
   <si>
-    <t>hydrogen</t>
-  </si>
-  <si>
-    <t>phs</t>
-  </si>
-  <si>
     <t>natgas</t>
   </si>
   <si>
@@ -468,9 +453,6 @@
     <t>PyPSA technology data</t>
   </si>
   <si>
-    <t>Source PHS costs</t>
-  </si>
-  <si>
     <t>Source all other costs</t>
   </si>
   <si>
@@ -685,6 +667,183 @@
   </si>
   <si>
     <t>concrete</t>
+  </si>
+  <si>
+    <t>Lead-Acid-bicharger</t>
+  </si>
+  <si>
+    <t>Gravity-Brick-bicharger</t>
+  </si>
+  <si>
+    <t>Gravity-Brick-store</t>
+  </si>
+  <si>
+    <t>gravity_brick_store</t>
+  </si>
+  <si>
+    <t>grav_brick</t>
+  </si>
+  <si>
+    <t>Gravity-Water-Aboveground-bicharger</t>
+  </si>
+  <si>
+    <t>Gravity-Water-Aboveground-store</t>
+  </si>
+  <si>
+    <t>gravity_aboveground_store</t>
+  </si>
+  <si>
+    <t>grav_abo_ground</t>
+  </si>
+  <si>
+    <t>Gravity-Water-Underground-bicharger</t>
+  </si>
+  <si>
+    <t>Gravity-Water-Underground-store</t>
+  </si>
+  <si>
+    <t>gravity_underground_store</t>
+  </si>
+  <si>
+    <t>grav_und_ground</t>
+  </si>
+  <si>
+    <t>HighT-Molten-Salt-charger</t>
+  </si>
+  <si>
+    <t>HighT-Molten-Salt-discharger</t>
+  </si>
+  <si>
+    <t>HighT-Molten-Salt-store</t>
+  </si>
+  <si>
+    <t>highT_salt</t>
+  </si>
+  <si>
+    <t>Liquid-Air-charger</t>
+  </si>
+  <si>
+    <t>Liquid-Air-discharger</t>
+  </si>
+  <si>
+    <t>Liquid-Air-store</t>
+  </si>
+  <si>
+    <t>highT_molten_salt_store</t>
+  </si>
+  <si>
+    <t>phs_store</t>
+  </si>
+  <si>
+    <t>hydrogen_store</t>
+  </si>
+  <si>
+    <t>liquid_air_store</t>
+  </si>
+  <si>
+    <t>liquid_air</t>
+  </si>
+  <si>
+    <t>LowT-Molten-Salt-charger</t>
+  </si>
+  <si>
+    <t>lowT_molten_salt_store</t>
+  </si>
+  <si>
+    <t>lowT_salt</t>
+  </si>
+  <si>
+    <t>Pumped-Heat-charger</t>
+  </si>
+  <si>
+    <t>Pumped-Heat-store</t>
+  </si>
+  <si>
+    <t>Pumped-Heat-discharger</t>
+  </si>
+  <si>
+    <t>pumped_heat_store</t>
+  </si>
+  <si>
+    <t>pumped_heat</t>
+  </si>
+  <si>
+    <t>Lead-Acid-store</t>
+  </si>
+  <si>
+    <t>lead_acid_store</t>
+  </si>
+  <si>
+    <t>lead_acid</t>
+  </si>
+  <si>
+    <t>Lithium-Ion-LFP-bicharger</t>
+  </si>
+  <si>
+    <t>lithium_ion_lfp_store</t>
+  </si>
+  <si>
+    <t>lithium_ion_lfp</t>
+  </si>
+  <si>
+    <t>Lithium-Ion-NMC-bicharger</t>
+  </si>
+  <si>
+    <t>lithium_ion_nmc_store</t>
+  </si>
+  <si>
+    <t>lithium_ion_nmc</t>
+  </si>
+  <si>
+    <t>Ni-Zn-bicharger</t>
+  </si>
+  <si>
+    <t>ni_zn_store</t>
+  </si>
+  <si>
+    <t>ni_zn</t>
+  </si>
+  <si>
+    <t>Zn-Br-Flow-bicharger</t>
+  </si>
+  <si>
+    <t>Zn-Br-Flow-store</t>
+  </si>
+  <si>
+    <t>zn_br_flow</t>
+  </si>
+  <si>
+    <t>zn_br_flow_store</t>
+  </si>
+  <si>
+    <t>Zn-Br-Nonflow-bicharger</t>
+  </si>
+  <si>
+    <t>Zn-Br-Nonflow-store</t>
+  </si>
+  <si>
+    <t>zn_br_nonflow_store</t>
+  </si>
+  <si>
+    <t>zn_br_nonflow</t>
+  </si>
+  <si>
+    <t>LowT-Molten-Salt-store</t>
+  </si>
+  <si>
+    <t>LowT-Molten-Salt-discharger</t>
+  </si>
+  <si>
+    <t>Lithium-Ion-LFP-store</t>
+  </si>
+  <si>
+    <t>Lithium-Ion-NMC-store</t>
+  </si>
+  <si>
+    <t>Ni-Zn-store</t>
+  </si>
+  <si>
+    <t>clab_pypsa/utilities/costs_2020.csv</t>
   </si>
 </sst>
 </file>
@@ -877,7 +1036,7 @@
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="56">
+  <fills count="59">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1179,12 +1338,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFBC4C3"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1192,6 +1345,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9385"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1376,7 +1553,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1584,11 +1761,11 @@
     <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1"/>
@@ -1597,6 +1774,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1650,15 +1839,15 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF9385"/>
+      <color rgb="FFEFFEB1"/>
+      <color rgb="FFFFCFE9"/>
       <color rgb="FFFBC4C3"/>
       <color rgb="FFC6E0B4"/>
       <color rgb="FFFD5646"/>
-      <color rgb="FFEFFEB1"/>
       <color rgb="FFFF6654"/>
-      <color rgb="FFFF9385"/>
       <color rgb="FFFFA58D"/>
       <color rgb="FFFF8B87"/>
-      <color rgb="FFFFCFE9"/>
       <color rgb="FFCD6CBA"/>
     </mruColors>
   </colors>
@@ -2004,17 +2193,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z137"/>
+  <dimension ref="A1:Z167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="2" max="2" width="31.83203125" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" customWidth="1"/>
     <col min="6" max="6" width="18.1640625" customWidth="1"/>
@@ -2332,18 +2521,18 @@
         <v>39</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="65" t="s">
-        <v>99</v>
+      <c r="B26" s="86" t="s">
+        <v>268</v>
       </c>
       <c r="F26" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -2359,7 +2548,7 @@
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -2367,7 +2556,7 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -2386,7 +2575,7 @@
         <v>37</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -2423,10 +2612,10 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B36" s="73" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.2">
@@ -2434,7 +2623,7 @@
         <v>42</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D37" t="s">
         <v>46</v>
@@ -2469,7 +2658,7 @@
         <v>92</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C41" s="1"/>
     </row>
@@ -2487,11 +2676,11 @@
         <v>64</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.2">
@@ -2507,7 +2696,7 @@
         <v>18</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G46" t="s">
         <v>84</v>
@@ -2516,7 +2705,7 @@
         <v>69</v>
       </c>
       <c r="P46" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.2">
@@ -2611,7 +2800,7 @@
         <v>76</v>
       </c>
       <c r="P50" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="1:26" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -2622,7 +2811,7 @@
         <v>21</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>22</v>
@@ -2637,7 +2826,7 @@
         <v>83</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>43</v>
@@ -2655,7 +2844,7 @@
         <v>25</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="R51" s="2" t="s">
         <v>26</v>
@@ -2722,7 +2911,7 @@
         <v>44</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3" t="s">
@@ -2738,21 +2927,21 @@
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="54" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="M53" s="3" t="str">
         <f>B43 &amp; "/time range/" &amp; B41</f>
         <v>€/time range/MW</v>
       </c>
       <c r="N53" s="90" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="O53" s="3" t="str">
         <f xml:space="preserve"> B43 &amp; "/" &amp; B41 &amp; B40</f>
         <v>€/MWh</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
@@ -2769,7 +2958,7 @@
         <v>44</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C54" s="22"/>
       <c r="D54" s="22" t="s">
@@ -2785,21 +2974,21 @@
       <c r="J54" s="22"/>
       <c r="K54" s="22"/>
       <c r="L54" s="55" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="M54" s="22" t="str">
         <f>B43 &amp; "/time range/" &amp; B41</f>
         <v>€/time range/MW</v>
       </c>
       <c r="N54" s="91" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="O54" s="22" t="str">
         <f xml:space="preserve"> B43 &amp; "/" &amp; B41 &amp; B40</f>
         <v>€/MWh</v>
       </c>
       <c r="P54" s="22" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="Q54" s="22"/>
       <c r="R54" s="22"/>
@@ -2816,13 +3005,13 @@
         <v>44</v>
       </c>
       <c r="B55" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C55" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="C55" s="18" t="s">
-        <v>158</v>
-      </c>
       <c r="D55" s="18" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E55" s="18"/>
       <c r="F55" s="18"/>
@@ -2832,7 +3021,7 @@
       <c r="J55" s="18"/>
       <c r="K55" s="18"/>
       <c r="L55" s="85">
-        <f>M126*B33</f>
+        <f>M156*B33</f>
         <v>143326.43376881725</v>
       </c>
       <c r="M55" s="18" t="str">
@@ -2840,7 +3029,7 @@
         <v>€/time range/MW</v>
       </c>
       <c r="N55" s="93">
-        <f>P126</f>
+        <f>P156</f>
         <v>39.223057644110277</v>
       </c>
       <c r="O55" s="18" t="str">
@@ -2848,13 +3037,13 @@
         <v>€/MWh</v>
       </c>
       <c r="P55" s="18" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="Q55" s="18"/>
       <c r="R55" s="18"/>
       <c r="S55" s="18"/>
       <c r="T55" s="93" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="U55" s="18"/>
       <c r="V55" s="17"/>
@@ -2867,13 +3056,13 @@
         <v>70</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E56" s="18" t="s">
         <v>88</v>
@@ -2901,7 +3090,7 @@
         <v>€/MWh</v>
       </c>
       <c r="P56" s="18" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="Q56" s="18"/>
       <c r="R56" s="18"/>
@@ -2911,7 +3100,7 @@
       </c>
       <c r="U56" s="18"/>
       <c r="V56" s="17" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="W56" s="18" t="str">
         <f>B42 &amp; "/" &amp;B41 &amp; B40</f>
@@ -2925,10 +3114,10 @@
         <v>44</v>
       </c>
       <c r="B57" s="76" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C57" s="76" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D57" s="76" t="s">
         <v>89</v>
@@ -2941,27 +3130,27 @@
       <c r="J57" s="76"/>
       <c r="K57" s="76"/>
       <c r="L57" s="77" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="M57" s="76" t="str">
         <f>B43 &amp; "/time range/" &amp; B41</f>
         <v>€/time range/MW</v>
       </c>
       <c r="N57" s="77" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="O57" s="76" t="str">
         <f xml:space="preserve"> B43 &amp; "/" &amp; B41 &amp; B40</f>
         <v>€/MWh</v>
       </c>
       <c r="P57" s="76" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="Q57" s="76"/>
       <c r="R57" s="76"/>
       <c r="S57" s="76"/>
       <c r="T57" s="77" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="U57" s="76"/>
       <c r="V57" s="75"/>
@@ -2974,10 +3163,10 @@
         <v>70</v>
       </c>
       <c r="B58" s="76" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C58" s="76" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D58" s="76" t="s">
         <v>89</v>
@@ -3008,7 +3197,7 @@
         <v>€/MWh</v>
       </c>
       <c r="P58" s="76" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="Q58" s="76"/>
       <c r="R58" s="76"/>
@@ -3018,7 +3207,7 @@
       </c>
       <c r="U58" s="76"/>
       <c r="V58" s="75" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="W58" s="76" t="str">
         <f>B42 &amp; "/" &amp;B41 &amp; B40</f>
@@ -3032,13 +3221,13 @@
         <v>44</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
@@ -3048,7 +3237,7 @@
       <c r="J59" s="13"/>
       <c r="K59" s="13"/>
       <c r="L59" s="89">
-        <f>M130*B33</f>
+        <f>M160*B33</f>
         <v>407013.04782420816</v>
       </c>
       <c r="M59" s="13" t="str">
@@ -3056,7 +3245,7 @@
         <v>€/time range/MW</v>
       </c>
       <c r="N59" s="56">
-        <f>P130</f>
+        <f>P160</f>
         <v>14.561403508771932</v>
       </c>
       <c r="O59" s="13" t="str">
@@ -3064,7 +3253,7 @@
         <v>€/MWh</v>
       </c>
       <c r="P59" s="13" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="Q59" s="13"/>
       <c r="R59" s="13"/>
@@ -3081,13 +3270,13 @@
         <v>70</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E60" s="13" t="s">
         <v>88</v>
@@ -3115,7 +3304,7 @@
         <v>€/MWh</v>
       </c>
       <c r="P60" s="13" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="Q60" s="13"/>
       <c r="R60" s="13"/>
@@ -3123,7 +3312,7 @@
       <c r="T60" s="56"/>
       <c r="U60" s="13"/>
       <c r="V60" s="13">
-        <f>Q130</f>
+        <f>Q160</f>
         <v>-1.22</v>
       </c>
       <c r="W60" s="13" t="str">
@@ -3144,7 +3333,7 @@
         <v>79</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E61" s="24"/>
       <c r="F61" s="24"/>
@@ -3154,27 +3343,27 @@
       <c r="J61" s="24"/>
       <c r="K61" s="24"/>
       <c r="L61" s="57" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="M61" s="24" t="str">
         <f>B43 &amp; "/time range/" &amp; B41</f>
         <v>€/time range/MW</v>
       </c>
       <c r="N61" s="94" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="O61" s="24" t="str">
         <f xml:space="preserve"> B43 &amp; "/" &amp; B41 &amp; B40</f>
         <v>€/MWh</v>
       </c>
       <c r="P61" s="24" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="Q61" s="24"/>
       <c r="R61" s="24"/>
       <c r="S61" s="24"/>
       <c r="T61" s="57" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="U61" s="24"/>
       <c r="V61" s="23"/>
@@ -3187,13 +3376,13 @@
         <v>70</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C62" s="24" t="s">
         <v>79</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E62" s="24" t="s">
         <v>88</v>
@@ -3221,7 +3410,7 @@
         <v>€/MWh</v>
       </c>
       <c r="P62" s="24" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="Q62" s="24"/>
       <c r="R62" s="24"/>
@@ -3231,7 +3420,7 @@
       </c>
       <c r="U62" s="24"/>
       <c r="V62" s="23" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="W62" s="24" t="str">
         <f>B42 &amp; "/" &amp;B41 &amp; B40</f>
@@ -3259,27 +3448,27 @@
       <c r="J63" s="35"/>
       <c r="K63" s="35"/>
       <c r="L63" s="78" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="M63" s="35" t="str">
         <f>B43 &amp; "/time range/" &amp; B41</f>
         <v>€/time range/MW</v>
       </c>
       <c r="N63" s="95" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="O63" s="35" t="str">
         <f xml:space="preserve"> B43 &amp; "/" &amp; B41 &amp; B40</f>
         <v>€/MWh</v>
       </c>
       <c r="P63" s="35" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="Q63" s="35"/>
       <c r="R63" s="35"/>
       <c r="S63" s="35"/>
       <c r="T63" s="95" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="U63" s="35"/>
       <c r="V63" s="34"/>
@@ -3292,7 +3481,7 @@
         <v>44</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C64" s="15"/>
       <c r="D64" s="15" t="s">
@@ -3306,27 +3495,27 @@
       <c r="J64" s="15"/>
       <c r="K64" s="15"/>
       <c r="L64" s="58" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="M64" s="15" t="str">
         <f>B43 &amp; "/time range/" &amp; B41</f>
         <v>€/time range/MW</v>
       </c>
       <c r="N64" s="96" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="O64" s="15" t="str">
         <f xml:space="preserve"> B43 &amp; "/" &amp; B41 &amp; B40</f>
         <v>€/MWh</v>
       </c>
       <c r="P64" s="15" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="Q64" s="15"/>
       <c r="R64" s="15"/>
       <c r="S64" s="15"/>
       <c r="T64" s="58" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="U64" s="15"/>
       <c r="V64" s="14"/>
@@ -3334,1955 +3523,3263 @@
       <c r="X64" s="15"/>
       <c r="Y64" s="15"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A65" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="B65" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="C65" s="26"/>
-      <c r="D65" s="26" t="s">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A65" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="C65" s="62"/>
+      <c r="D65" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="E65" s="26"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="26"/>
-      <c r="J65" s="26"/>
-      <c r="K65" s="26"/>
-      <c r="L65" s="59" t="str">
-        <f xml:space="preserve"> R65&amp;"*db_capital_cost"</f>
-        <v>6*db_capital_cost</v>
-      </c>
-      <c r="M65" s="26" t="str">
+      <c r="E65" s="62"/>
+      <c r="F65" s="62"/>
+      <c r="G65" s="62"/>
+      <c r="H65" s="62"/>
+      <c r="I65" s="62"/>
+      <c r="J65" s="62"/>
+      <c r="K65" s="62"/>
+      <c r="L65" s="80">
+        <f>H163/8784*B34</f>
+        <v>219298.24561403508</v>
+      </c>
+      <c r="M65" s="62" t="str">
         <f>B43 &amp; "/time range/" &amp; B41</f>
         <v>€/time range/MW</v>
       </c>
-      <c r="N65" s="59">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="O65" s="26" t="str">
+      <c r="N65" s="100"/>
+      <c r="O65" s="62" t="str">
         <f xml:space="preserve"> B43 &amp; "/" &amp; B41 &amp; B40</f>
         <v>€/MWh</v>
       </c>
-      <c r="P65" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q65" s="26"/>
-      <c r="R65" s="26">
-        <v>6</v>
-      </c>
-      <c r="S65" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="T65" s="59"/>
-      <c r="U65" s="26"/>
-      <c r="V65" s="25"/>
-      <c r="W65" s="26"/>
-      <c r="X65" s="26"/>
-      <c r="Y65" s="26"/>
-    </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A66" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B66" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C66" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="D66" s="28" t="s">
+      <c r="P65" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q65" s="62">
+        <v>-1</v>
+      </c>
+      <c r="R65" s="62"/>
+      <c r="S65" s="62"/>
+      <c r="T65" s="105"/>
+      <c r="U65" s="62"/>
+      <c r="V65" s="61"/>
+      <c r="W65" s="62"/>
+      <c r="X65" s="62"/>
+      <c r="Y65" s="62"/>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A66" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="C66" s="64"/>
+      <c r="D66" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="E66" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="F66" s="28"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="28"/>
-      <c r="K66" s="28"/>
-      <c r="L66" s="60" t="s">
-        <v>185</v>
-      </c>
-      <c r="M66" s="28" t="str">
+      <c r="E66" s="64"/>
+      <c r="F66" s="64"/>
+      <c r="G66" s="64"/>
+      <c r="H66" s="64"/>
+      <c r="I66" s="64"/>
+      <c r="J66" s="64"/>
+      <c r="K66" s="64"/>
+      <c r="L66" s="81">
+        <f>H163/8784*B34</f>
+        <v>219298.24561403508</v>
+      </c>
+      <c r="M66" s="64" t="str">
         <f>B43 &amp; "/time range/" &amp; B41</f>
         <v>€/time range/MW</v>
       </c>
-      <c r="N66" s="60">
-        <v>0.02</v>
-      </c>
-      <c r="O66" s="28" t="str">
+      <c r="N66" s="101"/>
+      <c r="O66" s="64" t="str">
         <f xml:space="preserve"> B43 &amp; "/" &amp; B41 &amp; B40</f>
         <v>€/MWh</v>
       </c>
-      <c r="P66" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q66" s="28"/>
-      <c r="R66" s="28"/>
-      <c r="S66" s="28"/>
-      <c r="T66" s="60" t="s">
+      <c r="P66" s="64" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q66" s="64"/>
+      <c r="R66" s="64"/>
+      <c r="S66" s="64"/>
+      <c r="T66" s="106"/>
+      <c r="U66" s="64"/>
+      <c r="V66" s="63"/>
+      <c r="W66" s="64"/>
+      <c r="X66" s="64"/>
+      <c r="Y66" s="64"/>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A67" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="B67" s="72" t="s">
+        <v>143</v>
+      </c>
+      <c r="C67" s="72"/>
+      <c r="D67" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="E67" s="72"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="72"/>
+      <c r="H67" s="72"/>
+      <c r="I67" s="72"/>
+      <c r="J67" s="72"/>
+      <c r="K67" s="72"/>
+      <c r="L67" s="82"/>
+      <c r="M67" s="72" t="str">
+        <f>B43 &amp; "/time range/" &amp; B41</f>
+        <v>€/time range/MW</v>
+      </c>
+      <c r="N67" s="102">
+        <f>P162</f>
+        <v>8771.9298245614045</v>
+      </c>
+      <c r="O67" s="72" t="str">
+        <f xml:space="preserve"> B43 &amp; "/" &amp; B41 &amp; B40</f>
+        <v>€/MWh</v>
+      </c>
+      <c r="P67" s="72" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q67" s="72"/>
+      <c r="R67" s="72"/>
+      <c r="S67" s="72"/>
+      <c r="T67" s="102"/>
+      <c r="U67" s="72"/>
+      <c r="V67" s="71"/>
+      <c r="W67" s="72"/>
+      <c r="X67" s="72"/>
+      <c r="Y67" s="72"/>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A68" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" s="70" t="s">
+        <v>99</v>
+      </c>
+      <c r="C68" s="70"/>
+      <c r="D68" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="E68" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="F68" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="G68" s="70"/>
+      <c r="H68" s="70"/>
+      <c r="I68" s="70"/>
+      <c r="J68" s="70"/>
+      <c r="K68" s="70"/>
+      <c r="L68" s="83" t="s">
+        <v>179</v>
+      </c>
+      <c r="M68" s="70" t="str">
+        <f>B43 &amp; "/time range/" &amp; B41</f>
+        <v>€/time range/MW</v>
+      </c>
+      <c r="N68" s="103" t="s">
+        <v>179</v>
+      </c>
+      <c r="O68" s="70" t="str">
+        <f xml:space="preserve"> B43 &amp; "/" &amp; B41 &amp; B40</f>
+        <v>€/MWh</v>
+      </c>
+      <c r="P68" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q68" s="70"/>
+      <c r="R68" s="70"/>
+      <c r="S68" s="70"/>
+      <c r="T68" s="83"/>
+      <c r="U68" s="70"/>
+      <c r="V68" s="69" t="s">
+        <v>182</v>
+      </c>
+      <c r="W68" s="70" t="str">
+        <f xml:space="preserve"> B41 &amp; B40  &amp; "/" &amp;  B42</f>
+        <v>MWh/t</v>
+      </c>
+      <c r="X68" s="70"/>
+      <c r="Y68" s="70"/>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A69" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="C69" s="33"/>
+      <c r="D69" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="E69" s="33"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="33"/>
+      <c r="I69" s="33"/>
+      <c r="J69" s="33"/>
+      <c r="K69" s="33">
+        <v>0</v>
+      </c>
+      <c r="L69" s="84"/>
+      <c r="M69" s="33" t="str">
+        <f>B43 &amp; "/time range/" &amp; B41</f>
+        <v>€/time range/MW</v>
+      </c>
+      <c r="N69" s="84"/>
+      <c r="O69" s="33" t="str">
+        <f xml:space="preserve"> B43 &amp; "/" &amp; B41 &amp; B40</f>
+        <v>€/MWh</v>
+      </c>
+      <c r="P69" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q69" s="33"/>
+      <c r="R69" s="33"/>
+      <c r="S69" s="33"/>
+      <c r="T69" s="84"/>
+      <c r="U69" s="33"/>
+      <c r="V69" s="32"/>
+      <c r="W69" s="33"/>
+      <c r="X69" s="33"/>
+      <c r="Y69" s="33"/>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A70" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="C70" s="67"/>
+      <c r="D70" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="E70" s="67"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="67"/>
+      <c r="H70" s="67"/>
+      <c r="I70" s="67"/>
+      <c r="J70" s="67"/>
+      <c r="K70" s="67"/>
+      <c r="L70" s="92" t="s">
+        <v>179</v>
+      </c>
+      <c r="M70" s="67" t="str">
+        <f>B43 &amp; "/time range/" &amp; "CO2"</f>
+        <v>€/time range/CO2</v>
+      </c>
+      <c r="N70" s="104" t="s">
+        <v>179</v>
+      </c>
+      <c r="O70" s="67"/>
+      <c r="P70" s="67" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q70" s="67"/>
+      <c r="R70" s="67"/>
+      <c r="S70" s="67"/>
+      <c r="T70" s="92"/>
+      <c r="U70" s="67"/>
+      <c r="V70" s="66"/>
+      <c r="W70" s="67"/>
+      <c r="X70" s="67"/>
+      <c r="Y70" s="67"/>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A71" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B71" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E71" s="26"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="26"/>
+      <c r="I71" s="26"/>
+      <c r="J71" s="26"/>
+      <c r="K71" s="26"/>
+      <c r="L71" s="59" t="str">
+        <f xml:space="preserve"> R71&amp;"*db_capital_cost"</f>
+        <v>6*db_capital_cost</v>
+      </c>
+      <c r="M71" s="26" t="str">
+        <f>B43 &amp; "/time range/" &amp; B41</f>
+        <v>€/time range/MW</v>
+      </c>
+      <c r="N71" s="59">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="O71" s="26" t="str">
+        <f xml:space="preserve"> B43 &amp; "/" &amp; B41 &amp; B40</f>
+        <v>€/MWh</v>
+      </c>
+      <c r="P71" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q71" s="26"/>
+      <c r="R71" s="26">
+        <v>6</v>
+      </c>
+      <c r="S71" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="T71" s="59"/>
+      <c r="U71" s="26"/>
+      <c r="V71" s="25"/>
+      <c r="W71" s="26"/>
+      <c r="X71" s="26"/>
+      <c r="Y71" s="26"/>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A72" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="C72" s="45" t="s">
+        <v>244</v>
+      </c>
+      <c r="D72" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="E72" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="F72" s="45"/>
+      <c r="G72" s="45">
+        <v>-1</v>
+      </c>
+      <c r="H72" s="45"/>
+      <c r="I72" s="45"/>
+      <c r="J72" s="45"/>
+      <c r="K72" s="45"/>
+      <c r="L72" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="M72" s="45"/>
+      <c r="N72" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="O72" s="45"/>
+      <c r="P72" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q72" s="45"/>
+      <c r="R72" s="45"/>
+      <c r="S72" s="45"/>
+      <c r="T72" s="45"/>
+      <c r="U72" s="45"/>
+      <c r="V72" s="45"/>
+      <c r="W72" s="45"/>
+      <c r="X72" s="45"/>
+      <c r="Y72" s="45"/>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A73" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="C73" s="45" t="s">
+        <v>244</v>
+      </c>
+      <c r="D73" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="E73" s="45"/>
+      <c r="F73" s="45"/>
+      <c r="G73" s="45"/>
+      <c r="H73" s="45"/>
+      <c r="I73" s="45"/>
+      <c r="J73" s="45"/>
+      <c r="K73" s="45"/>
+      <c r="L73" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="M73" s="45"/>
+      <c r="N73" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="O73" s="45"/>
+      <c r="P73" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q73" s="45"/>
+      <c r="R73" s="45"/>
+      <c r="S73" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="T73" s="45"/>
+      <c r="U73" s="45"/>
+      <c r="V73" s="45"/>
+      <c r="W73" s="45"/>
+      <c r="X73" s="45"/>
+      <c r="Y73" s="45"/>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A74" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="B74" s="72" t="s">
+        <v>246</v>
+      </c>
+      <c r="C74" s="72" t="s">
+        <v>247</v>
+      </c>
+      <c r="D74" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="E74" s="72" t="s">
+        <v>248</v>
+      </c>
+      <c r="F74" s="72"/>
+      <c r="G74" s="72">
+        <v>-1</v>
+      </c>
+      <c r="H74" s="72"/>
+      <c r="I74" s="72"/>
+      <c r="J74" s="72"/>
+      <c r="K74" s="72"/>
+      <c r="L74" s="102" t="s">
+        <v>179</v>
+      </c>
+      <c r="M74" s="72"/>
+      <c r="N74" s="102" t="s">
+        <v>179</v>
+      </c>
+      <c r="O74" s="72"/>
+      <c r="P74" s="72" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q74" s="72"/>
+      <c r="R74" s="72"/>
+      <c r="S74" s="72"/>
+      <c r="T74" s="72"/>
+      <c r="U74" s="72"/>
+      <c r="V74" s="72"/>
+      <c r="W74" s="72"/>
+      <c r="X74" s="72"/>
+      <c r="Y74" s="72"/>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A75" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B75" s="72" t="s">
+        <v>265</v>
+      </c>
+      <c r="C75" s="72" t="s">
+        <v>247</v>
+      </c>
+      <c r="D75" s="72" t="s">
+        <v>248</v>
+      </c>
+      <c r="E75" s="72"/>
+      <c r="F75" s="72"/>
+      <c r="G75" s="72"/>
+      <c r="H75" s="72"/>
+      <c r="I75" s="72"/>
+      <c r="J75" s="72"/>
+      <c r="K75" s="72"/>
+      <c r="L75" s="102" t="s">
+        <v>179</v>
+      </c>
+      <c r="M75" s="72"/>
+      <c r="N75" s="102" t="s">
+        <v>179</v>
+      </c>
+      <c r="O75" s="72"/>
+      <c r="P75" s="72" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q75" s="72"/>
+      <c r="R75" s="72"/>
+      <c r="S75" s="72" t="b">
+        <v>1</v>
+      </c>
+      <c r="T75" s="72"/>
+      <c r="U75" s="72"/>
+      <c r="V75" s="72"/>
+      <c r="W75" s="72"/>
+      <c r="X75" s="72"/>
+      <c r="Y75" s="72"/>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A76" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E76" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15">
+        <v>-1</v>
+      </c>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="M76" s="15"/>
+      <c r="N76" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="O76" s="15"/>
+      <c r="P76" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q76" s="15"/>
+      <c r="R76" s="15"/>
+      <c r="S76" s="15"/>
+      <c r="T76" s="15"/>
+      <c r="U76" s="15"/>
+      <c r="V76" s="15"/>
+      <c r="W76" s="15"/>
+      <c r="X76" s="15"/>
+      <c r="Y76" s="15"/>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A77" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="M77" s="15"/>
+      <c r="N77" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="O77" s="15"/>
+      <c r="P77" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q77" s="15"/>
+      <c r="R77" s="15"/>
+      <c r="S77" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="T77" s="15"/>
+      <c r="U77" s="15"/>
+      <c r="V77" s="15"/>
+      <c r="W77" s="15"/>
+      <c r="X77" s="15"/>
+      <c r="Y77" s="15"/>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A78" s="116" t="s">
+        <v>70</v>
+      </c>
+      <c r="B78" s="116" t="s">
+        <v>252</v>
+      </c>
+      <c r="C78" s="116" t="s">
+        <v>253</v>
+      </c>
+      <c r="D78" s="116" t="s">
+        <v>88</v>
+      </c>
+      <c r="E78" s="116" t="s">
+        <v>254</v>
+      </c>
+      <c r="F78" s="116"/>
+      <c r="G78" s="116">
+        <v>-1</v>
+      </c>
+      <c r="H78" s="116"/>
+      <c r="I78" s="116"/>
+      <c r="J78" s="116"/>
+      <c r="K78" s="116"/>
+      <c r="L78" s="117" t="s">
+        <v>179</v>
+      </c>
+      <c r="M78" s="116"/>
+      <c r="N78" s="117" t="s">
+        <v>179</v>
+      </c>
+      <c r="O78" s="116"/>
+      <c r="P78" s="116" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q78" s="116"/>
+      <c r="R78" s="116"/>
+      <c r="S78" s="116"/>
+      <c r="T78" s="116"/>
+      <c r="U78" s="116"/>
+      <c r="V78" s="116"/>
+      <c r="W78" s="116"/>
+      <c r="X78" s="116"/>
+      <c r="Y78" s="116"/>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A79" s="116" t="s">
+        <v>71</v>
+      </c>
+      <c r="B79" s="116" t="s">
+        <v>267</v>
+      </c>
+      <c r="C79" s="116" t="s">
+        <v>253</v>
+      </c>
+      <c r="D79" s="116" t="s">
+        <v>254</v>
+      </c>
+      <c r="E79" s="116"/>
+      <c r="F79" s="116"/>
+      <c r="G79" s="116"/>
+      <c r="H79" s="116"/>
+      <c r="I79" s="116"/>
+      <c r="J79" s="116"/>
+      <c r="K79" s="116"/>
+      <c r="L79" s="117" t="s">
+        <v>179</v>
+      </c>
+      <c r="M79" s="116"/>
+      <c r="N79" s="117" t="s">
+        <v>179</v>
+      </c>
+      <c r="O79" s="116"/>
+      <c r="P79" s="116" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q79" s="116"/>
+      <c r="R79" s="116"/>
+      <c r="S79" s="116" t="b">
+        <v>1</v>
+      </c>
+      <c r="T79" s="116"/>
+      <c r="U79" s="116"/>
+      <c r="V79" s="116"/>
+      <c r="W79" s="116"/>
+      <c r="X79" s="116"/>
+      <c r="Y79" s="116"/>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A80" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B80" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="C80" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D80" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E80" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="F80" s="35"/>
+      <c r="G80" s="35">
+        <v>-1</v>
+      </c>
+      <c r="H80" s="35"/>
+      <c r="I80" s="35"/>
+      <c r="J80" s="35"/>
+      <c r="K80" s="35"/>
+      <c r="L80" s="95" t="s">
+        <v>179</v>
+      </c>
+      <c r="M80" s="35"/>
+      <c r="N80" s="95" t="s">
+        <v>179</v>
+      </c>
+      <c r="O80" s="35"/>
+      <c r="P80" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q80" s="35"/>
+      <c r="R80" s="35"/>
+      <c r="S80" s="35"/>
+      <c r="T80" s="35"/>
+      <c r="U80" s="35"/>
+      <c r="V80" s="35"/>
+      <c r="W80" s="35"/>
+      <c r="X80" s="35"/>
+      <c r="Y80" s="35"/>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A81" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B81" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="C81" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="D81" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="E81" s="35"/>
+      <c r="F81" s="35"/>
+      <c r="G81" s="35"/>
+      <c r="H81" s="35"/>
+      <c r="I81" s="35"/>
+      <c r="J81" s="35"/>
+      <c r="K81" s="35"/>
+      <c r="L81" s="95" t="s">
+        <v>179</v>
+      </c>
+      <c r="M81" s="35"/>
+      <c r="N81" s="95" t="s">
+        <v>179</v>
+      </c>
+      <c r="O81" s="35"/>
+      <c r="P81" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q81" s="35"/>
+      <c r="R81" s="35"/>
+      <c r="S81" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="T81" s="35"/>
+      <c r="U81" s="35"/>
+      <c r="V81" s="35"/>
+      <c r="W81" s="35"/>
+      <c r="X81" s="35"/>
+      <c r="Y81" s="35"/>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A82" s="118" t="s">
+        <v>70</v>
+      </c>
+      <c r="B82" s="118" t="s">
+        <v>196</v>
+      </c>
+      <c r="C82" s="118" t="s">
+        <v>198</v>
+      </c>
+      <c r="D82" s="118" t="s">
+        <v>88</v>
+      </c>
+      <c r="E82" s="118" t="s">
+        <v>199</v>
+      </c>
+      <c r="F82" s="118"/>
+      <c r="G82" s="118">
+        <v>-1</v>
+      </c>
+      <c r="H82" s="118"/>
+      <c r="I82" s="118"/>
+      <c r="J82" s="118"/>
+      <c r="K82" s="118"/>
+      <c r="L82" s="119" t="s">
+        <v>179</v>
+      </c>
+      <c r="M82" s="118"/>
+      <c r="N82" s="119" t="s">
+        <v>179</v>
+      </c>
+      <c r="O82" s="118"/>
+      <c r="P82" s="118" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q82" s="118"/>
+      <c r="R82" s="118"/>
+      <c r="S82" s="118"/>
+      <c r="T82" s="118"/>
+      <c r="U82" s="118"/>
+      <c r="V82" s="118"/>
+      <c r="W82" s="118"/>
+      <c r="X82" s="118"/>
+      <c r="Y82" s="118"/>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A83" s="118" t="s">
+        <v>71</v>
+      </c>
+      <c r="B83" s="118" t="s">
+        <v>197</v>
+      </c>
+      <c r="C83" s="118" t="s">
+        <v>198</v>
+      </c>
+      <c r="D83" s="118" t="s">
+        <v>199</v>
+      </c>
+      <c r="E83" s="118"/>
+      <c r="F83" s="118"/>
+      <c r="G83" s="118"/>
+      <c r="H83" s="118"/>
+      <c r="I83" s="118"/>
+      <c r="J83" s="118"/>
+      <c r="K83" s="118"/>
+      <c r="L83" s="119" t="s">
+        <v>179</v>
+      </c>
+      <c r="M83" s="118"/>
+      <c r="N83" s="119" t="s">
+        <v>179</v>
+      </c>
+      <c r="O83" s="118"/>
+      <c r="P83" s="118" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q83" s="118"/>
+      <c r="R83" s="118"/>
+      <c r="S83" s="118" t="b">
+        <v>1</v>
+      </c>
+      <c r="T83" s="118"/>
+      <c r="U83" s="118"/>
+      <c r="V83" s="118"/>
+      <c r="W83" s="118"/>
+      <c r="X83" s="118"/>
+      <c r="Y83" s="118"/>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="M84" s="3"/>
+      <c r="N84" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q84" s="3"/>
+      <c r="R84" s="3"/>
+      <c r="S84" s="3"/>
+      <c r="T84" s="3"/>
+      <c r="U84" s="3"/>
+      <c r="V84" s="3"/>
+      <c r="W84" s="3"/>
+      <c r="X84" s="3"/>
+      <c r="Y84" s="3"/>
+      <c r="Z84" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="M85" s="3"/>
+      <c r="N85" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q85" s="3"/>
+      <c r="R85" s="3"/>
+      <c r="S85" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T85" s="3"/>
+      <c r="U85" s="3"/>
+      <c r="V85" s="3"/>
+      <c r="W85" s="3"/>
+      <c r="X85" s="3"/>
+      <c r="Y85" s="3"/>
+      <c r="Z85" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A86" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B86" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="C86" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="D86" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="E86" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="F86" s="45"/>
+      <c r="G86" s="45">
+        <v>-1</v>
+      </c>
+      <c r="H86" s="45"/>
+      <c r="I86" s="45"/>
+      <c r="J86" s="45"/>
+      <c r="K86" s="45"/>
+      <c r="L86" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="M86" s="45"/>
+      <c r="N86" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="O86" s="45"/>
+      <c r="P86" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q86" s="45"/>
+      <c r="R86" s="45"/>
+      <c r="S86" s="45"/>
+      <c r="T86" s="45"/>
+      <c r="U86" s="45"/>
+      <c r="V86" s="45"/>
+      <c r="W86" s="45"/>
+      <c r="X86" s="45"/>
+      <c r="Y86" s="45"/>
+      <c r="Z86" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A87" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B87" s="45" t="s">
+        <v>260</v>
+      </c>
+      <c r="C87" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="D87" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="E87" s="45"/>
+      <c r="F87" s="45"/>
+      <c r="G87" s="45"/>
+      <c r="H87" s="45"/>
+      <c r="I87" s="45"/>
+      <c r="J87" s="45"/>
+      <c r="K87" s="45"/>
+      <c r="L87" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="M87" s="45"/>
+      <c r="N87" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="O87" s="45"/>
+      <c r="P87" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q87" s="45"/>
+      <c r="R87" s="45"/>
+      <c r="S87" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="T87" s="45"/>
+      <c r="U87" s="45"/>
+      <c r="V87" s="45"/>
+      <c r="W87" s="45"/>
+      <c r="X87" s="45"/>
+      <c r="Y87" s="45"/>
+      <c r="Z87" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A88" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B88" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="C88" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="D88" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E88" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="U66" s="28"/>
-      <c r="V66" s="27"/>
-      <c r="W66" s="28"/>
-      <c r="X66" s="28"/>
-      <c r="Y66" s="28"/>
-    </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A67" s="27" t="s">
+      <c r="F88" s="35"/>
+      <c r="G88" s="35">
+        <v>-1</v>
+      </c>
+      <c r="H88" s="35"/>
+      <c r="I88" s="35"/>
+      <c r="J88" s="35"/>
+      <c r="K88" s="35"/>
+      <c r="L88" s="95" t="s">
+        <v>179</v>
+      </c>
+      <c r="M88" s="35"/>
+      <c r="N88" s="95" t="s">
+        <v>179</v>
+      </c>
+      <c r="O88" s="35"/>
+      <c r="P88" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q88" s="35"/>
+      <c r="R88" s="35"/>
+      <c r="S88" s="35"/>
+      <c r="T88" s="35"/>
+      <c r="U88" s="35"/>
+      <c r="V88" s="35"/>
+      <c r="W88" s="35"/>
+      <c r="X88" s="35"/>
+      <c r="Y88" s="35"/>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A89" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="B67" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C67" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="D67" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="E67" s="28"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
-      <c r="J67" s="28"/>
-      <c r="K67" s="28"/>
-      <c r="L67" s="60" t="s">
+      <c r="B89" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="C89" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="D89" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="M67" s="28" t="str">
+      <c r="E89" s="35"/>
+      <c r="F89" s="35"/>
+      <c r="G89" s="35"/>
+      <c r="H89" s="35"/>
+      <c r="I89" s="35"/>
+      <c r="J89" s="35"/>
+      <c r="K89" s="35"/>
+      <c r="L89" s="95" t="s">
+        <v>179</v>
+      </c>
+      <c r="M89" s="35"/>
+      <c r="N89" s="95" t="s">
+        <v>179</v>
+      </c>
+      <c r="O89" s="35"/>
+      <c r="P89" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q89" s="35"/>
+      <c r="R89" s="35"/>
+      <c r="S89" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="T89" s="35"/>
+      <c r="U89" s="35"/>
+      <c r="V89" s="35"/>
+      <c r="W89" s="35"/>
+      <c r="X89" s="35"/>
+      <c r="Y89" s="35"/>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A90" s="112" t="s">
+        <v>70</v>
+      </c>
+      <c r="B90" s="112" t="s">
+        <v>211</v>
+      </c>
+      <c r="C90" s="112" t="s">
+        <v>213</v>
+      </c>
+      <c r="D90" s="112" t="s">
+        <v>88</v>
+      </c>
+      <c r="E90" s="112" t="s">
+        <v>214</v>
+      </c>
+      <c r="F90" s="112"/>
+      <c r="G90" s="112">
+        <v>-1</v>
+      </c>
+      <c r="H90" s="112"/>
+      <c r="I90" s="112"/>
+      <c r="J90" s="112"/>
+      <c r="K90" s="112"/>
+      <c r="L90" s="113" t="s">
+        <v>179</v>
+      </c>
+      <c r="M90" s="112"/>
+      <c r="N90" s="113" t="s">
+        <v>179</v>
+      </c>
+      <c r="O90" s="112"/>
+      <c r="P90" s="112" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q90" s="112"/>
+      <c r="R90" s="112"/>
+      <c r="S90" s="112"/>
+      <c r="T90" s="112"/>
+      <c r="U90" s="112"/>
+      <c r="V90" s="112"/>
+      <c r="W90" s="112"/>
+      <c r="X90" s="112"/>
+      <c r="Y90" s="112"/>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A91" s="112" t="s">
+        <v>71</v>
+      </c>
+      <c r="B91" s="112" t="s">
+        <v>212</v>
+      </c>
+      <c r="C91" s="112" t="s">
+        <v>213</v>
+      </c>
+      <c r="D91" s="112" t="s">
+        <v>214</v>
+      </c>
+      <c r="E91" s="112"/>
+      <c r="F91" s="112"/>
+      <c r="G91" s="112"/>
+      <c r="H91" s="112"/>
+      <c r="I91" s="112"/>
+      <c r="J91" s="112"/>
+      <c r="K91" s="112"/>
+      <c r="L91" s="113" t="s">
+        <v>179</v>
+      </c>
+      <c r="M91" s="112"/>
+      <c r="N91" s="113" t="s">
+        <v>179</v>
+      </c>
+      <c r="O91" s="112"/>
+      <c r="P91" s="112" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q91" s="112"/>
+      <c r="R91" s="112"/>
+      <c r="S91" s="112" t="b">
+        <v>1</v>
+      </c>
+      <c r="T91" s="112"/>
+      <c r="U91" s="112"/>
+      <c r="V91" s="112"/>
+      <c r="W91" s="112"/>
+      <c r="X91" s="112"/>
+      <c r="Y91" s="112"/>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A92" s="114" t="s">
+        <v>70</v>
+      </c>
+      <c r="B92" s="114" t="s">
+        <v>215</v>
+      </c>
+      <c r="C92" s="114" t="s">
+        <v>217</v>
+      </c>
+      <c r="D92" s="114" t="s">
+        <v>88</v>
+      </c>
+      <c r="E92" s="114" t="s">
+        <v>218</v>
+      </c>
+      <c r="F92" s="114"/>
+      <c r="G92" s="114">
+        <v>-1</v>
+      </c>
+      <c r="H92" s="114"/>
+      <c r="I92" s="114"/>
+      <c r="J92" s="114"/>
+      <c r="K92" s="114"/>
+      <c r="L92" s="115" t="s">
+        <v>179</v>
+      </c>
+      <c r="M92" s="114"/>
+      <c r="N92" s="115" t="s">
+        <v>179</v>
+      </c>
+      <c r="O92" s="114"/>
+      <c r="P92" s="114" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q92" s="114"/>
+      <c r="R92" s="114"/>
+      <c r="S92" s="114"/>
+      <c r="T92" s="114"/>
+      <c r="U92" s="114"/>
+      <c r="V92" s="114"/>
+      <c r="W92" s="114"/>
+      <c r="X92" s="114"/>
+      <c r="Y92" s="114"/>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A93" s="114" t="s">
+        <v>71</v>
+      </c>
+      <c r="B93" s="114" t="s">
+        <v>216</v>
+      </c>
+      <c r="C93" s="114" t="s">
+        <v>217</v>
+      </c>
+      <c r="D93" s="114" t="s">
+        <v>218</v>
+      </c>
+      <c r="E93" s="114"/>
+      <c r="F93" s="114"/>
+      <c r="G93" s="114"/>
+      <c r="H93" s="114"/>
+      <c r="I93" s="114"/>
+      <c r="J93" s="114"/>
+      <c r="K93" s="114"/>
+      <c r="L93" s="115" t="s">
+        <v>179</v>
+      </c>
+      <c r="M93" s="114"/>
+      <c r="N93" s="115" t="s">
+        <v>179</v>
+      </c>
+      <c r="O93" s="114"/>
+      <c r="P93" s="114" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q93" s="114"/>
+      <c r="R93" s="114"/>
+      <c r="S93" s="114" t="b">
+        <v>1</v>
+      </c>
+      <c r="T93" s="114"/>
+      <c r="U93" s="114"/>
+      <c r="V93" s="114"/>
+      <c r="W93" s="114"/>
+      <c r="X93" s="114"/>
+      <c r="Y93" s="114"/>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A94" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B94" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="C94" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="D94" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E94" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="F94" s="35"/>
+      <c r="G94" s="35">
+        <v>-1</v>
+      </c>
+      <c r="H94" s="35"/>
+      <c r="I94" s="35"/>
+      <c r="J94" s="35"/>
+      <c r="K94" s="35"/>
+      <c r="L94" s="95" t="s">
+        <v>179</v>
+      </c>
+      <c r="M94" s="35"/>
+      <c r="N94" s="95" t="s">
+        <v>179</v>
+      </c>
+      <c r="O94" s="35"/>
+      <c r="P94" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q94" s="35"/>
+      <c r="R94" s="35"/>
+      <c r="S94" s="35"/>
+      <c r="T94" s="35"/>
+      <c r="U94" s="35"/>
+      <c r="V94" s="35"/>
+      <c r="W94" s="35"/>
+      <c r="X94" s="35"/>
+      <c r="Y94" s="35"/>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A95" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B95" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="C95" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="D95" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="E95" s="35"/>
+      <c r="F95" s="35"/>
+      <c r="G95" s="35"/>
+      <c r="H95" s="35"/>
+      <c r="I95" s="35"/>
+      <c r="J95" s="35"/>
+      <c r="K95" s="35"/>
+      <c r="L95" s="95" t="s">
+        <v>179</v>
+      </c>
+      <c r="M95" s="35"/>
+      <c r="N95" s="95" t="s">
+        <v>179</v>
+      </c>
+      <c r="O95" s="35"/>
+      <c r="P95" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q95" s="35"/>
+      <c r="R95" s="35"/>
+      <c r="S95" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="T95" s="35"/>
+      <c r="U95" s="35"/>
+      <c r="V95" s="35"/>
+      <c r="W95" s="35"/>
+      <c r="X95" s="35"/>
+      <c r="Y95" s="35"/>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A96" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B96" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="C96" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="D96" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="E96" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="F96" s="30"/>
+      <c r="G96" s="30">
+        <v>-1</v>
+      </c>
+      <c r="H96" s="30"/>
+      <c r="I96" s="30"/>
+      <c r="J96" s="30"/>
+      <c r="K96" s="30"/>
+      <c r="L96" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="M96" s="30" t="str">
+        <f>B43 &amp; "/time range/" &amp; B41</f>
+        <v>€/time range/MW</v>
+      </c>
+      <c r="N96" s="98" t="s">
+        <v>179</v>
+      </c>
+      <c r="O96" s="30" t="str">
+        <f xml:space="preserve"> B43 &amp; "/" &amp; B41 &amp; B40</f>
+        <v>€/MWh</v>
+      </c>
+      <c r="P96" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q96" s="30"/>
+      <c r="R96" s="30"/>
+      <c r="S96" s="30"/>
+      <c r="T96" s="98"/>
+      <c r="U96" s="30"/>
+      <c r="V96" s="29"/>
+      <c r="W96" s="30"/>
+      <c r="X96" s="30"/>
+      <c r="Y96" s="30"/>
+    </row>
+    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A97" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B97" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="C97" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="D97" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="E97" s="30"/>
+      <c r="F97" s="30"/>
+      <c r="G97" s="30"/>
+      <c r="H97" s="30"/>
+      <c r="I97" s="30"/>
+      <c r="J97" s="30"/>
+      <c r="K97" s="30"/>
+      <c r="L97" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="M97" s="30" t="str">
         <f>B43 &amp; "/time range/" &amp; B41 &amp; B40</f>
         <v>€/time range/MWh</v>
       </c>
-      <c r="N67" s="97" t="s">
-        <v>185</v>
-      </c>
-      <c r="O67" s="28" t="str">
+      <c r="N97" s="99" t="s">
+        <v>179</v>
+      </c>
+      <c r="O97" s="30" t="str">
         <f xml:space="preserve"> B43 &amp; "/" &amp; B41 &amp; B40</f>
         <v>€/MWh</v>
       </c>
-      <c r="P67" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q67" s="28"/>
-      <c r="R67" s="28"/>
-      <c r="S67" s="28" t="b">
+      <c r="P97" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q97" s="30"/>
+      <c r="R97" s="30"/>
+      <c r="S97" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="T67" s="60" t="s">
-        <v>185</v>
-      </c>
-      <c r="U67" s="28"/>
-      <c r="V67" s="27"/>
-      <c r="W67" s="28"/>
-      <c r="X67" s="74">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="Y67" s="28"/>
-    </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A68" s="27" t="s">
+      <c r="T97" s="98"/>
+      <c r="U97" s="30"/>
+      <c r="V97" s="29"/>
+      <c r="W97" s="30"/>
+      <c r="X97" s="30"/>
+      <c r="Y97" s="30"/>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A98" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="B68" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="C68" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="D68" s="28" t="s">
+      <c r="B98" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C98" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="D98" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E98" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="E68" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="28"/>
-      <c r="K68" s="28"/>
-      <c r="L68" s="60" t="s">
-        <v>185</v>
-      </c>
-      <c r="M68" s="28" t="str">
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="28"/>
+      <c r="I98" s="28"/>
+      <c r="J98" s="28"/>
+      <c r="K98" s="28"/>
+      <c r="L98" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="M98" s="28" t="str">
         <f>B43 &amp; "/time range/" &amp; B41</f>
         <v>€/time range/MW</v>
       </c>
-      <c r="N68" s="60">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="O68" s="28" t="str">
+      <c r="N98" s="60">
+        <v>0.02</v>
+      </c>
+      <c r="O98" s="28" t="str">
         <f xml:space="preserve"> B43 &amp; "/" &amp; B41 &amp; B40</f>
         <v>€/MWh</v>
       </c>
-      <c r="P68" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q68" s="28"/>
-      <c r="R68" s="28"/>
-      <c r="S68" s="28"/>
-      <c r="T68" s="60" t="s">
-        <v>185</v>
-      </c>
-      <c r="U68" s="28"/>
-      <c r="V68" s="27"/>
-      <c r="W68" s="28"/>
-      <c r="X68" s="28"/>
-      <c r="Y68" s="28"/>
-    </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A69" s="29" t="s">
+      <c r="P98" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q98" s="28"/>
+      <c r="R98" s="28"/>
+      <c r="S98" s="28"/>
+      <c r="T98" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="U98" s="28"/>
+      <c r="V98" s="27"/>
+      <c r="W98" s="28"/>
+      <c r="X98" s="28"/>
+      <c r="Y98" s="28"/>
+    </row>
+    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A99" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B99" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C99" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="D99" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E99" s="28"/>
+      <c r="F99" s="28"/>
+      <c r="G99" s="28"/>
+      <c r="H99" s="28"/>
+      <c r="I99" s="28"/>
+      <c r="J99" s="28"/>
+      <c r="K99" s="28"/>
+      <c r="L99" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="M99" s="28" t="str">
+        <f>B43 &amp; "/time range/" &amp; B41 &amp; B40</f>
+        <v>€/time range/MWh</v>
+      </c>
+      <c r="N99" s="97" t="s">
+        <v>179</v>
+      </c>
+      <c r="O99" s="28" t="str">
+        <f xml:space="preserve"> B43 &amp; "/" &amp; B41 &amp; B40</f>
+        <v>€/MWh</v>
+      </c>
+      <c r="P99" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q99" s="28"/>
+      <c r="R99" s="28"/>
+      <c r="S99" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="T99" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="U99" s="28"/>
+      <c r="V99" s="27"/>
+      <c r="W99" s="28"/>
+      <c r="X99" s="74">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="Y99" s="28"/>
+    </row>
+    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A100" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="B69" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="C69" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="D69" s="30" t="s">
+      <c r="B100" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C100" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="D100" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E100" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="E69" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="F69" s="30"/>
-      <c r="G69" s="30">
-        <v>-1</v>
-      </c>
-      <c r="H69" s="30"/>
-      <c r="I69" s="30"/>
-      <c r="J69" s="30"/>
-      <c r="K69" s="30"/>
-      <c r="L69" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="M69" s="30" t="str">
+      <c r="F100" s="28"/>
+      <c r="G100" s="28"/>
+      <c r="H100" s="28"/>
+      <c r="I100" s="28"/>
+      <c r="J100" s="28"/>
+      <c r="K100" s="28"/>
+      <c r="L100" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="M100" s="28" t="str">
         <f>B43 &amp; "/time range/" &amp; B41</f>
         <v>€/time range/MW</v>
       </c>
-      <c r="N69" s="98" t="s">
-        <v>185</v>
-      </c>
-      <c r="O69" s="30" t="str">
+      <c r="N100" s="60">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="O100" s="28" t="str">
         <f xml:space="preserve"> B43 &amp; "/" &amp; B41 &amp; B40</f>
         <v>€/MWh</v>
       </c>
-      <c r="P69" s="30" t="s">
+      <c r="P100" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q100" s="28"/>
+      <c r="R100" s="28"/>
+      <c r="S100" s="28"/>
+      <c r="T100" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="U100" s="28"/>
+      <c r="V100" s="27"/>
+      <c r="W100" s="28"/>
+      <c r="X100" s="28"/>
+      <c r="Y100" s="28"/>
+    </row>
+    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A101" s="110" t="s">
+        <v>70</v>
+      </c>
+      <c r="B101" s="110" t="s">
+        <v>205</v>
+      </c>
+      <c r="C101" s="110" t="s">
+        <v>208</v>
+      </c>
+      <c r="D101" s="110" t="s">
+        <v>88</v>
+      </c>
+      <c r="E101" s="110" t="s">
+        <v>209</v>
+      </c>
+      <c r="F101" s="110"/>
+      <c r="G101" s="110"/>
+      <c r="H101" s="110"/>
+      <c r="I101" s="110"/>
+      <c r="J101" s="110"/>
+      <c r="K101" s="110"/>
+      <c r="L101" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="M101" s="110"/>
+      <c r="N101" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="O101" s="110"/>
+      <c r="P101" s="110" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q101" s="110"/>
+      <c r="R101" s="110"/>
+      <c r="S101" s="110"/>
+      <c r="T101" s="110"/>
+      <c r="U101" s="110"/>
+      <c r="V101" s="110"/>
+      <c r="W101" s="110"/>
+      <c r="X101" s="110"/>
+      <c r="Y101" s="110"/>
+    </row>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A102" s="110" t="s">
+        <v>71</v>
+      </c>
+      <c r="B102" s="110" t="s">
+        <v>206</v>
+      </c>
+      <c r="C102" s="110" t="s">
+        <v>208</v>
+      </c>
+      <c r="D102" s="110" t="s">
+        <v>209</v>
+      </c>
+      <c r="E102" s="110"/>
+      <c r="F102" s="110"/>
+      <c r="G102" s="110"/>
+      <c r="H102" s="110"/>
+      <c r="I102" s="110"/>
+      <c r="J102" s="110"/>
+      <c r="K102" s="110"/>
+      <c r="L102" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="M102" s="110"/>
+      <c r="N102" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="O102" s="110"/>
+      <c r="P102" s="110" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q102" s="110"/>
+      <c r="R102" s="110"/>
+      <c r="S102" s="110" t="b">
+        <v>1</v>
+      </c>
+      <c r="T102" s="110"/>
+      <c r="U102" s="110"/>
+      <c r="V102" s="110"/>
+      <c r="W102" s="110"/>
+      <c r="X102" s="110"/>
+      <c r="Y102" s="110"/>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A103" s="110" t="s">
+        <v>70</v>
+      </c>
+      <c r="B103" s="110" t="s">
+        <v>207</v>
+      </c>
+      <c r="C103" s="110" t="s">
+        <v>208</v>
+      </c>
+      <c r="D103" s="110" t="s">
+        <v>209</v>
+      </c>
+      <c r="E103" s="110" t="s">
+        <v>88</v>
+      </c>
+      <c r="F103" s="110"/>
+      <c r="G103" s="110"/>
+      <c r="H103" s="110"/>
+      <c r="I103" s="110"/>
+      <c r="J103" s="110"/>
+      <c r="K103" s="110"/>
+      <c r="L103" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="M103" s="110"/>
+      <c r="N103" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="O103" s="110"/>
+      <c r="P103" s="110" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q103" s="110"/>
+      <c r="R103" s="110"/>
+      <c r="S103" s="110"/>
+      <c r="T103" s="110"/>
+      <c r="U103" s="110"/>
+      <c r="V103" s="110"/>
+      <c r="W103" s="110"/>
+      <c r="X103" s="110"/>
+      <c r="Y103" s="110"/>
+    </row>
+    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A104" s="108" t="s">
+        <v>70</v>
+      </c>
+      <c r="B104" s="108" t="s">
+        <v>223</v>
+      </c>
+      <c r="C104" s="108" t="s">
+        <v>230</v>
+      </c>
+      <c r="D104" s="108" t="s">
+        <v>88</v>
+      </c>
+      <c r="E104" s="108" t="s">
+        <v>226</v>
+      </c>
+      <c r="F104" s="108"/>
+      <c r="G104" s="108"/>
+      <c r="H104" s="108"/>
+      <c r="I104" s="108"/>
+      <c r="J104" s="108"/>
+      <c r="K104" s="108"/>
+      <c r="L104" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="M104" s="108"/>
+      <c r="N104" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="O104" s="108"/>
+      <c r="P104" s="108" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q104" s="108"/>
+      <c r="R104" s="108"/>
+      <c r="S104" s="108"/>
+      <c r="T104" s="108"/>
+      <c r="U104" s="108"/>
+      <c r="V104" s="108"/>
+      <c r="W104" s="108"/>
+      <c r="X104" s="108"/>
+      <c r="Y104" s="108"/>
+    </row>
+    <row r="105" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="108" t="s">
+        <v>71</v>
+      </c>
+      <c r="B105" s="108" t="s">
+        <v>225</v>
+      </c>
+      <c r="C105" s="108" t="s">
+        <v>230</v>
+      </c>
+      <c r="D105" s="108" t="s">
+        <v>226</v>
+      </c>
+      <c r="E105" s="108"/>
+      <c r="F105" s="108"/>
+      <c r="G105" s="108"/>
+      <c r="H105" s="108"/>
+      <c r="I105" s="108"/>
+      <c r="J105" s="108"/>
+      <c r="K105" s="108"/>
+      <c r="L105" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="M105" s="108"/>
+      <c r="N105" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="O105" s="108"/>
+      <c r="P105" s="108" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q105" s="108"/>
+      <c r="R105" s="108"/>
+      <c r="S105" s="108" t="b">
+        <v>1</v>
+      </c>
+      <c r="T105" s="108"/>
+      <c r="U105" s="108"/>
+      <c r="V105" s="108"/>
+      <c r="W105" s="108"/>
+      <c r="X105" s="108"/>
+      <c r="Y105" s="108"/>
+    </row>
+    <row r="106" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A106" s="108" t="s">
+        <v>70</v>
+      </c>
+      <c r="B106" s="108" t="s">
+        <v>224</v>
+      </c>
+      <c r="C106" s="108" t="s">
+        <v>230</v>
+      </c>
+      <c r="D106" s="108" t="s">
+        <v>226</v>
+      </c>
+      <c r="E106" s="108" t="s">
+        <v>88</v>
+      </c>
+      <c r="F106" s="108"/>
+      <c r="G106" s="108"/>
+      <c r="H106" s="108"/>
+      <c r="I106" s="108"/>
+      <c r="J106" s="108"/>
+      <c r="K106" s="108"/>
+      <c r="L106" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="M106" s="108"/>
+      <c r="N106" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="O106" s="108"/>
+      <c r="P106" s="108" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q106" s="108"/>
+      <c r="R106" s="108"/>
+      <c r="S106" s="108"/>
+      <c r="T106" s="108"/>
+      <c r="U106" s="108"/>
+      <c r="V106" s="108"/>
+      <c r="W106" s="108"/>
+      <c r="X106" s="108"/>
+      <c r="Y106" s="108"/>
+    </row>
+    <row r="107" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A107" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B107" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="C107" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="D107" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="E107" s="45" t="s">
+        <v>234</v>
+      </c>
+      <c r="F107" s="45"/>
+      <c r="G107" s="45"/>
+      <c r="H107" s="45"/>
+      <c r="I107" s="45"/>
+      <c r="J107" s="45"/>
+      <c r="K107" s="45"/>
+      <c r="L107" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="M107" s="45"/>
+      <c r="N107" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="O107" s="45"/>
+      <c r="P107" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q107" s="45"/>
+      <c r="R107" s="45"/>
+      <c r="S107" s="45"/>
+      <c r="T107" s="45"/>
+      <c r="U107" s="45"/>
+      <c r="V107" s="45"/>
+      <c r="W107" s="45"/>
+      <c r="X107" s="45"/>
+      <c r="Y107" s="45"/>
+    </row>
+    <row r="108" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A108" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B108" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="C108" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="D108" s="45" t="s">
+        <v>234</v>
+      </c>
+      <c r="E108" s="45"/>
+      <c r="F108" s="45"/>
+      <c r="G108" s="45"/>
+      <c r="H108" s="45"/>
+      <c r="I108" s="45"/>
+      <c r="J108" s="45"/>
+      <c r="K108" s="45"/>
+      <c r="L108" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="M108" s="45"/>
+      <c r="N108" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="O108" s="45"/>
+      <c r="P108" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q108" s="45"/>
+      <c r="R108" s="45"/>
+      <c r="S108" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="T108" s="45"/>
+      <c r="U108" s="45"/>
+      <c r="V108" s="45"/>
+      <c r="W108" s="45"/>
+      <c r="X108" s="45"/>
+      <c r="Y108" s="45"/>
+    </row>
+    <row r="109" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A109" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B109" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="C109" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="D109" s="45" t="s">
+        <v>234</v>
+      </c>
+      <c r="E109" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F109" s="45"/>
+      <c r="G109" s="45"/>
+      <c r="H109" s="45"/>
+      <c r="I109" s="45"/>
+      <c r="J109" s="45"/>
+      <c r="K109" s="45"/>
+      <c r="L109" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="M109" s="45"/>
+      <c r="N109" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="O109" s="45"/>
+      <c r="P109" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q109" s="45"/>
+      <c r="R109" s="45"/>
+      <c r="S109" s="45"/>
+      <c r="T109" s="45"/>
+      <c r="U109" s="45"/>
+      <c r="V109" s="45"/>
+      <c r="W109" s="45"/>
+      <c r="X109" s="45"/>
+      <c r="Y109" s="45"/>
+    </row>
+    <row r="110" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A110" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B110" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="C110" s="70" t="s">
+        <v>236</v>
+      </c>
+      <c r="D110" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="E110" s="70" t="s">
+        <v>237</v>
+      </c>
+      <c r="F110" s="70"/>
+      <c r="G110" s="70"/>
+      <c r="H110" s="70"/>
+      <c r="I110" s="70"/>
+      <c r="J110" s="70"/>
+      <c r="K110" s="70"/>
+      <c r="L110" s="83" t="s">
+        <v>179</v>
+      </c>
+      <c r="M110" s="70"/>
+      <c r="N110" s="83" t="s">
+        <v>179</v>
+      </c>
+      <c r="O110" s="70"/>
+      <c r="P110" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q110" s="70"/>
+      <c r="R110" s="70"/>
+      <c r="S110" s="70"/>
+      <c r="T110" s="70"/>
+      <c r="U110" s="70"/>
+      <c r="V110" s="70"/>
+      <c r="W110" s="70"/>
+      <c r="X110" s="70"/>
+      <c r="Y110" s="70"/>
+    </row>
+    <row r="111" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A111" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="B111" s="70" t="s">
+        <v>263</v>
+      </c>
+      <c r="C111" s="70" t="s">
+        <v>236</v>
+      </c>
+      <c r="D111" s="70" t="s">
+        <v>237</v>
+      </c>
+      <c r="E111" s="70"/>
+      <c r="F111" s="70"/>
+      <c r="G111" s="70"/>
+      <c r="H111" s="70"/>
+      <c r="I111" s="70"/>
+      <c r="J111" s="70"/>
+      <c r="K111" s="70"/>
+      <c r="L111" s="83" t="s">
+        <v>179</v>
+      </c>
+      <c r="M111" s="70"/>
+      <c r="N111" s="83" t="s">
+        <v>179</v>
+      </c>
+      <c r="O111" s="70"/>
+      <c r="P111" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q111" s="70"/>
+      <c r="R111" s="70"/>
+      <c r="S111" s="70" t="b">
+        <v>1</v>
+      </c>
+      <c r="T111" s="70"/>
+      <c r="U111" s="70"/>
+      <c r="V111" s="70"/>
+      <c r="W111" s="70"/>
+      <c r="X111" s="70"/>
+      <c r="Y111" s="70"/>
+    </row>
+    <row r="112" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A112" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B112" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="C112" s="70" t="s">
+        <v>236</v>
+      </c>
+      <c r="D112" s="70" t="s">
+        <v>237</v>
+      </c>
+      <c r="E112" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="F112" s="70"/>
+      <c r="G112" s="70"/>
+      <c r="H112" s="70"/>
+      <c r="I112" s="70"/>
+      <c r="J112" s="70"/>
+      <c r="K112" s="70"/>
+      <c r="L112" s="83" t="s">
+        <v>179</v>
+      </c>
+      <c r="M112" s="70"/>
+      <c r="N112" s="83" t="s">
+        <v>179</v>
+      </c>
+      <c r="O112" s="70"/>
+      <c r="P112" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q112" s="70"/>
+      <c r="R112" s="70"/>
+      <c r="S112" s="70"/>
+      <c r="T112" s="70"/>
+      <c r="U112" s="70"/>
+      <c r="V112" s="70"/>
+      <c r="W112" s="70"/>
+      <c r="X112" s="70"/>
+      <c r="Y112" s="70"/>
+    </row>
+    <row r="113" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A113" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B113" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="C113" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="D113" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E113" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="F113" s="15"/>
+      <c r="G113" s="15"/>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="15"/>
+      <c r="K113" s="15"/>
+      <c r="L113" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="M113" s="15"/>
+      <c r="N113" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="O113" s="15"/>
+      <c r="P113" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q113" s="15"/>
+      <c r="R113" s="15"/>
+      <c r="S113" s="15"/>
+      <c r="T113" s="15"/>
+      <c r="U113" s="15"/>
+      <c r="V113" s="15"/>
+      <c r="W113" s="15"/>
+      <c r="X113" s="15"/>
+      <c r="Y113" s="15"/>
+    </row>
+    <row r="114" spans="1:25" s="11" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B114" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="C114" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="D114" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="E114" s="15"/>
+      <c r="F114" s="15"/>
+      <c r="G114" s="15"/>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="15"/>
+      <c r="K114" s="15"/>
+      <c r="L114" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="M114" s="15"/>
+      <c r="N114" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="O114" s="15"/>
+      <c r="P114" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q114" s="15"/>
+      <c r="R114" s="15"/>
+      <c r="S114" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="T114" s="15"/>
+      <c r="U114" s="15"/>
+      <c r="V114" s="15"/>
+      <c r="W114" s="15"/>
+      <c r="X114" s="15"/>
+      <c r="Y114" s="15"/>
+    </row>
+    <row r="115" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B115" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="C115" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="D115" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="E115" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F115" s="15"/>
+      <c r="G115" s="15"/>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="15"/>
+      <c r="K115" s="15"/>
+      <c r="L115" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="M115" s="15"/>
+      <c r="N115" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="O115" s="15"/>
+      <c r="P115" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q115" s="15"/>
+      <c r="R115" s="15"/>
+      <c r="S115" s="15"/>
+      <c r="T115" s="15"/>
+      <c r="U115" s="15"/>
+      <c r="V115" s="15"/>
+      <c r="W115" s="15"/>
+      <c r="X115" s="15"/>
+      <c r="Y115" s="15"/>
+    </row>
+    <row r="116" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A116" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B116" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C116" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D116" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E116" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="F116" s="13"/>
+      <c r="G116" s="13"/>
+      <c r="H116" s="13"/>
+      <c r="I116" s="13"/>
+      <c r="J116" s="13"/>
+      <c r="K116" s="13"/>
+      <c r="L116" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="M116" s="13"/>
+      <c r="N116" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="O116" s="13"/>
+      <c r="P116" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q116" s="13"/>
+      <c r="R116" s="13"/>
+      <c r="S116" s="13"/>
+      <c r="T116" s="13"/>
+      <c r="U116" s="13"/>
+      <c r="V116" s="13"/>
+      <c r="W116" s="13"/>
+      <c r="X116" s="13"/>
+      <c r="Y116" s="13"/>
+    </row>
+    <row r="117" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A117" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B117" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C117" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D117" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E117" s="13"/>
+      <c r="F117" s="13"/>
+      <c r="G117" s="13"/>
+      <c r="H117" s="13"/>
+      <c r="I117" s="13"/>
+      <c r="J117" s="13"/>
+      <c r="K117" s="13"/>
+      <c r="L117" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="M117" s="13"/>
+      <c r="N117" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="O117" s="13"/>
+      <c r="P117" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q117" s="13"/>
+      <c r="R117" s="13"/>
+      <c r="S117" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="T117" s="13"/>
+      <c r="U117" s="13"/>
+      <c r="V117" s="13"/>
+      <c r="W117" s="13"/>
+      <c r="X117" s="13"/>
+      <c r="Y117" s="13"/>
+    </row>
+    <row r="118" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A118" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B118" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C118" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D118" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E118" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F118" s="13"/>
+      <c r="G118" s="13"/>
+      <c r="H118" s="13"/>
+      <c r="I118" s="13"/>
+      <c r="J118" s="13"/>
+      <c r="K118" s="13"/>
+      <c r="L118" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="M118" s="13"/>
+      <c r="N118" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="O118" s="13"/>
+      <c r="P118" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q118" s="13"/>
+      <c r="R118" s="13"/>
+      <c r="S118" s="13"/>
+      <c r="T118" s="13"/>
+      <c r="U118" s="13"/>
+      <c r="V118" s="13"/>
+      <c r="W118" s="13"/>
+      <c r="X118" s="13"/>
+      <c r="Y118" s="13"/>
+    </row>
+    <row r="120" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="123" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="124" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>66</v>
+      </c>
+      <c r="O124" s="9"/>
+      <c r="P124" s="9"/>
+      <c r="Q124" s="9"/>
+    </row>
+    <row r="126" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="127" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="128" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="130" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A130" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="E130" s="36"/>
+      <c r="F130" s="36"/>
+      <c r="G130" s="36"/>
+      <c r="H130" s="36"/>
+      <c r="I130" s="36"/>
+      <c r="J130" s="36"/>
+      <c r="K130" s="36"/>
+      <c r="L130" s="36"/>
+      <c r="M130" s="2"/>
+      <c r="N130" s="2"/>
+    </row>
+    <row r="131" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A131" s="37"/>
+      <c r="B131" s="38"/>
+      <c r="C131" s="40"/>
+      <c r="E131" s="36"/>
+      <c r="F131" s="36"/>
+      <c r="G131" s="36"/>
+      <c r="H131" s="36"/>
+      <c r="I131" s="36"/>
+      <c r="J131" s="36"/>
+      <c r="K131" s="36"/>
+      <c r="L131" s="36"/>
+      <c r="M131" s="2"/>
+      <c r="N131" s="2"/>
+    </row>
+    <row r="132" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A132" s="37"/>
+      <c r="B132" s="39"/>
+      <c r="C132" s="41"/>
+      <c r="E132" s="36"/>
+      <c r="F132" s="36"/>
+      <c r="G132" s="36"/>
+      <c r="H132" s="36"/>
+      <c r="I132" s="36"/>
+      <c r="J132" s="36"/>
+      <c r="K132" s="36"/>
+      <c r="L132" s="36"/>
+      <c r="M132" s="2"/>
+      <c r="N132" s="2"/>
+    </row>
+    <row r="133" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A133" s="37"/>
+      <c r="B133" s="39"/>
+      <c r="C133" s="41"/>
+      <c r="E133" s="36"/>
+      <c r="F133" s="36"/>
+      <c r="G133" s="36"/>
+      <c r="H133" s="36"/>
+      <c r="I133" s="36"/>
+      <c r="J133" s="36"/>
+      <c r="K133" s="36"/>
+      <c r="L133" s="36"/>
+      <c r="M133" s="2"/>
+      <c r="N133" s="2"/>
+    </row>
+    <row r="134" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A134" s="37"/>
+      <c r="B134" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="C134" s="68" t="s">
+        <v>167</v>
+      </c>
+      <c r="E134" s="36"/>
+      <c r="F134" s="36"/>
+      <c r="G134" s="36"/>
+      <c r="H134" s="36"/>
+      <c r="I134" s="36"/>
+      <c r="J134" s="36"/>
+      <c r="K134" s="36"/>
+      <c r="L134" s="36"/>
+      <c r="M134" s="2"/>
+      <c r="N134" s="2"/>
+    </row>
+    <row r="135" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A135" s="37"/>
+      <c r="B135" s="38"/>
+      <c r="C135" s="79" t="s">
+        <v>166</v>
+      </c>
+      <c r="E135" s="36"/>
+      <c r="F135" s="36"/>
+      <c r="G135" s="36"/>
+      <c r="H135" s="36"/>
+      <c r="I135" s="36"/>
+      <c r="J135" s="36"/>
+      <c r="K135" s="36"/>
+      <c r="L135" s="36"/>
+      <c r="M135" s="2"/>
+      <c r="N135" s="2"/>
+    </row>
+    <row r="136" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A136" s="37"/>
+      <c r="B136" s="38"/>
+      <c r="C136" s="79"/>
+      <c r="E136" s="36"/>
+      <c r="F136" s="36"/>
+      <c r="G136" s="36"/>
+      <c r="H136" s="36"/>
+      <c r="I136" s="36"/>
+      <c r="J136" s="36"/>
+      <c r="K136" s="36"/>
+      <c r="L136" s="36"/>
+      <c r="M136" s="2"/>
+      <c r="N136" s="2"/>
+    </row>
+    <row r="137" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A137" s="37"/>
+      <c r="B137" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="C137" s="86" t="s">
+        <v>157</v>
+      </c>
+      <c r="E137" s="36"/>
+      <c r="F137" s="36"/>
+      <c r="G137" s="36"/>
+      <c r="H137" s="36"/>
+      <c r="I137" s="36"/>
+      <c r="J137" s="36"/>
+      <c r="K137" s="36"/>
+      <c r="L137" s="36"/>
+      <c r="M137" s="2"/>
+      <c r="N137" s="2"/>
+    </row>
+    <row r="138" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A138" s="37"/>
+      <c r="B138" s="38"/>
+      <c r="C138" s="79" t="s">
+        <v>169</v>
+      </c>
+      <c r="E138" s="36"/>
+      <c r="F138" s="36"/>
+      <c r="G138" s="36"/>
+      <c r="H138" s="36"/>
+      <c r="I138" s="36"/>
+      <c r="J138" s="36"/>
+      <c r="K138" s="36"/>
+      <c r="L138" s="36"/>
+      <c r="M138" s="2"/>
+      <c r="N138" s="2"/>
+    </row>
+    <row r="139" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A139" s="37"/>
+      <c r="B139" s="39"/>
+      <c r="C139" s="41"/>
+      <c r="E139" s="36"/>
+      <c r="F139" s="36"/>
+      <c r="G139" s="36"/>
+      <c r="H139" s="36"/>
+      <c r="I139" s="36"/>
+      <c r="J139" s="36"/>
+      <c r="K139" s="36"/>
+      <c r="L139" s="36"/>
+      <c r="M139" s="2"/>
+      <c r="N139" s="2"/>
+      <c r="S139" s="11"/>
+      <c r="T139" s="11"/>
+      <c r="U139" s="11"/>
+      <c r="V139" s="11"/>
+      <c r="W139" s="11"/>
+      <c r="X139" s="11"/>
+      <c r="Y139" s="11"/>
+    </row>
+    <row r="140" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A140" s="37"/>
+      <c r="B140" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="C140" t="s">
+        <v>135</v>
+      </c>
+      <c r="E140" s="36"/>
+      <c r="F140" s="36"/>
+      <c r="G140" s="36"/>
+      <c r="H140" s="36"/>
+      <c r="I140" s="36"/>
+      <c r="J140" s="36"/>
+      <c r="K140" s="36"/>
+      <c r="L140" s="36"/>
+      <c r="M140" s="2"/>
+      <c r="N140" s="2"/>
+    </row>
+    <row r="141" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A141" s="37"/>
+      <c r="B141" s="38"/>
+      <c r="C141" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="E141" s="36"/>
+      <c r="F141" s="36"/>
+      <c r="G141" s="36"/>
+      <c r="H141" s="36"/>
+      <c r="I141" s="36"/>
+      <c r="J141" s="36"/>
+      <c r="K141" s="36"/>
+      <c r="L141" s="36"/>
+      <c r="M141" s="2"/>
+      <c r="N141" s="2"/>
+    </row>
+    <row r="142" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A142" s="37"/>
+      <c r="B142" s="38"/>
+      <c r="C142" s="65"/>
+      <c r="E142" s="36"/>
+      <c r="F142" s="36"/>
+      <c r="G142" s="36"/>
+      <c r="H142" s="36"/>
+      <c r="I142" s="36"/>
+      <c r="J142" s="36"/>
+      <c r="K142" s="36"/>
+      <c r="L142" s="36"/>
+      <c r="M142" s="2"/>
+      <c r="N142" s="2"/>
+    </row>
+    <row r="143" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A143" s="37"/>
+      <c r="B143" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="C143" s="86" t="s">
+        <v>165</v>
+      </c>
+      <c r="E143" s="36"/>
+      <c r="F143" s="36"/>
+      <c r="G143" s="36"/>
+      <c r="H143" s="36"/>
+      <c r="I143" s="36"/>
+      <c r="J143" s="36"/>
+      <c r="K143" s="36"/>
+      <c r="L143" s="36"/>
+      <c r="M143" s="2"/>
+      <c r="N143" s="2"/>
+    </row>
+    <row r="144" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A144" s="37"/>
+      <c r="B144" s="38"/>
+      <c r="C144" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="E144" s="36"/>
+      <c r="F144" s="36"/>
+      <c r="G144" s="36"/>
+      <c r="H144" s="36"/>
+      <c r="I144" s="36"/>
+      <c r="J144" s="36"/>
+      <c r="K144" s="36"/>
+      <c r="L144" s="36"/>
+      <c r="M144" s="2"/>
+      <c r="N144" s="2"/>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A145" s="37"/>
+      <c r="E145" s="36"/>
+      <c r="F145" s="36"/>
+      <c r="G145" s="36"/>
+      <c r="H145" s="36"/>
+      <c r="I145" s="36"/>
+      <c r="J145" s="36"/>
+      <c r="K145" s="36"/>
+      <c r="L145" s="36"/>
+      <c r="M145" s="2"/>
+      <c r="N145" s="2"/>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A146" s="37"/>
+      <c r="B146" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="C146" t="s">
+        <v>137</v>
+      </c>
+      <c r="F146" s="36"/>
+      <c r="G146" s="36"/>
+      <c r="H146" s="36"/>
+      <c r="I146" s="36"/>
+      <c r="J146" s="36"/>
+      <c r="K146" s="36"/>
+      <c r="L146" s="36"/>
+      <c r="M146" s="2"/>
+      <c r="N146" s="2"/>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A147" s="37"/>
+      <c r="B147" s="38"/>
+      <c r="C147" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="F147" s="36"/>
+      <c r="G147" s="36"/>
+      <c r="H147" s="36"/>
+      <c r="I147" s="36"/>
+      <c r="J147" s="36"/>
+      <c r="K147" s="36"/>
+      <c r="L147" s="36"/>
+      <c r="M147" s="2"/>
+      <c r="N147" s="2"/>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A148" s="37"/>
+      <c r="B148" s="38"/>
+      <c r="C148" s="39"/>
+      <c r="F148" s="36"/>
+      <c r="G148" s="36"/>
+      <c r="H148" s="36"/>
+      <c r="I148" s="36"/>
+      <c r="J148" s="36"/>
+      <c r="K148" s="36"/>
+      <c r="L148" s="36"/>
+      <c r="M148" s="2"/>
+      <c r="N148" s="2"/>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A149" s="37"/>
+      <c r="B149" s="39"/>
+      <c r="E149" s="36"/>
+      <c r="F149" s="36"/>
+      <c r="G149" s="36"/>
+      <c r="H149" s="36"/>
+      <c r="I149" s="36"/>
+      <c r="J149" s="36"/>
+      <c r="K149" s="36"/>
+      <c r="L149" s="36"/>
+      <c r="M149" s="2"/>
+      <c r="N149" s="2"/>
+    </row>
+    <row r="150" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A150" s="37"/>
+      <c r="B150" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="Q69" s="30"/>
-      <c r="R69" s="30"/>
-      <c r="S69" s="30"/>
-      <c r="T69" s="98"/>
-      <c r="U69" s="30"/>
-      <c r="V69" s="29"/>
-      <c r="W69" s="30"/>
-      <c r="X69" s="30"/>
-      <c r="Y69" s="30"/>
-      <c r="Z69" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A70" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="B70" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="C70" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="D70" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="E70" s="30"/>
-      <c r="F70" s="30"/>
-      <c r="G70" s="30"/>
-      <c r="H70" s="30"/>
-      <c r="I70" s="30"/>
-      <c r="J70" s="30"/>
-      <c r="K70" s="30"/>
-      <c r="L70" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="M70" s="30" t="str">
-        <f>B43 &amp; "/time range/" &amp; B41 &amp; B40</f>
-        <v>€/time range/MWh</v>
-      </c>
-      <c r="N70" s="99" t="s">
-        <v>185</v>
-      </c>
-      <c r="O70" s="30" t="str">
-        <f xml:space="preserve"> B43 &amp; "/" &amp; B41 &amp; B40</f>
-        <v>€/MWh</v>
-      </c>
-      <c r="P70" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q70" s="30"/>
-      <c r="R70" s="30"/>
-      <c r="S70" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="T70" s="98"/>
-      <c r="U70" s="30"/>
-      <c r="V70" s="29"/>
-      <c r="W70" s="30"/>
-      <c r="X70" s="30"/>
-      <c r="Y70" s="30"/>
-      <c r="Z70" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A71" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71" s="62" t="s">
-        <v>133</v>
-      </c>
-      <c r="C71" s="62"/>
-      <c r="D71" s="62" t="s">
-        <v>88</v>
-      </c>
-      <c r="E71" s="62"/>
-      <c r="F71" s="62"/>
-      <c r="G71" s="62"/>
-      <c r="H71" s="62"/>
-      <c r="I71" s="62"/>
-      <c r="J71" s="62"/>
-      <c r="K71" s="62"/>
-      <c r="L71" s="80">
-        <f>H133/8784*B34</f>
-        <v>219298.24561403508</v>
-      </c>
-      <c r="M71" s="62" t="str">
-        <f>B43 &amp; "/time range/" &amp; B41</f>
-        <v>€/time range/MW</v>
-      </c>
-      <c r="N71" s="100"/>
-      <c r="O71" s="62" t="str">
-        <f xml:space="preserve"> B43 &amp; "/" &amp; B41 &amp; B40</f>
-        <v>€/MWh</v>
-      </c>
-      <c r="P71" s="62" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q71" s="62">
-        <v>-1</v>
-      </c>
-      <c r="R71" s="62"/>
-      <c r="S71" s="62"/>
-      <c r="T71" s="105"/>
-      <c r="U71" s="62"/>
-      <c r="V71" s="61"/>
-      <c r="W71" s="62"/>
-      <c r="X71" s="62"/>
-      <c r="Y71" s="62"/>
-    </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A72" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="B72" s="64" t="s">
-        <v>134</v>
-      </c>
-      <c r="C72" s="64"/>
-      <c r="D72" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="E72" s="64"/>
-      <c r="F72" s="64"/>
-      <c r="G72" s="64"/>
-      <c r="H72" s="64"/>
-      <c r="I72" s="64"/>
-      <c r="J72" s="64"/>
-      <c r="K72" s="64"/>
-      <c r="L72" s="81">
-        <f>H133/8784*B34</f>
-        <v>219298.24561403508</v>
-      </c>
-      <c r="M72" s="64" t="str">
-        <f>B43 &amp; "/time range/" &amp; B41</f>
-        <v>€/time range/MW</v>
-      </c>
-      <c r="N72" s="101"/>
-      <c r="O72" s="64" t="str">
-        <f xml:space="preserve"> B43 &amp; "/" &amp; B41 &amp; B40</f>
-        <v>€/MWh</v>
-      </c>
-      <c r="P72" s="64" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q72" s="64"/>
-      <c r="R72" s="64"/>
-      <c r="S72" s="64"/>
-      <c r="T72" s="106"/>
-      <c r="U72" s="64"/>
-      <c r="V72" s="63"/>
-      <c r="W72" s="64"/>
-      <c r="X72" s="64"/>
-      <c r="Y72" s="64"/>
-    </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A73" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="B73" s="72" t="s">
-        <v>149</v>
-      </c>
-      <c r="C73" s="72"/>
-      <c r="D73" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="E73" s="72"/>
-      <c r="F73" s="72"/>
-      <c r="G73" s="72"/>
-      <c r="H73" s="72"/>
-      <c r="I73" s="72"/>
-      <c r="J73" s="72"/>
-      <c r="K73" s="72"/>
-      <c r="L73" s="82"/>
-      <c r="M73" s="72" t="str">
-        <f>B43 &amp; "/time range/" &amp; B41</f>
-        <v>€/time range/MW</v>
-      </c>
-      <c r="N73" s="102">
-        <f>P132</f>
-        <v>8771.9298245614045</v>
-      </c>
-      <c r="O73" s="72" t="str">
-        <f xml:space="preserve"> B43 &amp; "/" &amp; B41 &amp; B40</f>
-        <v>€/MWh</v>
-      </c>
-      <c r="P73" s="72" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q73" s="72"/>
-      <c r="R73" s="72"/>
-      <c r="S73" s="72"/>
-      <c r="T73" s="102"/>
-      <c r="U73" s="72"/>
-      <c r="V73" s="71"/>
-      <c r="W73" s="72"/>
-      <c r="X73" s="72"/>
-      <c r="Y73" s="72"/>
-    </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A74" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="B74" s="70" t="s">
-        <v>100</v>
-      </c>
-      <c r="C74" s="70"/>
-      <c r="D74" s="70" t="s">
-        <v>95</v>
-      </c>
-      <c r="E74" s="70" t="s">
-        <v>78</v>
-      </c>
-      <c r="F74" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="G74" s="70"/>
-      <c r="H74" s="70"/>
-      <c r="I74" s="70"/>
-      <c r="J74" s="70"/>
-      <c r="K74" s="70"/>
-      <c r="L74" s="83" t="s">
-        <v>185</v>
-      </c>
-      <c r="M74" s="70" t="str">
-        <f>B43 &amp; "/time range/" &amp; B41</f>
-        <v>€/time range/MW</v>
-      </c>
-      <c r="N74" s="103" t="s">
-        <v>185</v>
-      </c>
-      <c r="O74" s="70" t="str">
-        <f xml:space="preserve"> B43 &amp; "/" &amp; B41 &amp; B40</f>
-        <v>€/MWh</v>
-      </c>
-      <c r="P74" s="70" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q74" s="70"/>
-      <c r="R74" s="70"/>
-      <c r="S74" s="70"/>
-      <c r="T74" s="83"/>
-      <c r="U74" s="70"/>
-      <c r="V74" s="69" t="s">
-        <v>188</v>
-      </c>
-      <c r="W74" s="70" t="str">
-        <f xml:space="preserve"> B41 &amp; B40  &amp; "/" &amp;  B42</f>
-        <v>MWh/t</v>
-      </c>
-      <c r="X74" s="70"/>
-      <c r="Y74" s="70"/>
-    </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A75" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="B75" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="C75" s="33"/>
-      <c r="D75" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="E75" s="33"/>
-      <c r="F75" s="33"/>
-      <c r="G75" s="33"/>
-      <c r="H75" s="33"/>
-      <c r="I75" s="33"/>
-      <c r="J75" s="33"/>
-      <c r="K75" s="33">
-        <v>0</v>
-      </c>
-      <c r="L75" s="84"/>
-      <c r="M75" s="33" t="str">
-        <f>B43 &amp; "/time range/" &amp; B41</f>
-        <v>€/time range/MW</v>
-      </c>
-      <c r="N75" s="84"/>
-      <c r="O75" s="33" t="str">
-        <f xml:space="preserve"> B43 &amp; "/" &amp; B41 &amp; B40</f>
-        <v>€/MWh</v>
-      </c>
-      <c r="P75" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q75" s="33"/>
-      <c r="R75" s="33"/>
-      <c r="S75" s="33"/>
-      <c r="T75" s="84"/>
-      <c r="U75" s="33"/>
-      <c r="V75" s="32"/>
-      <c r="W75" s="33"/>
-      <c r="X75" s="33"/>
-      <c r="Y75" s="33"/>
-    </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A76" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="B76" s="67" t="s">
-        <v>109</v>
-      </c>
-      <c r="C76" s="67"/>
-      <c r="D76" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="E76" s="67"/>
-      <c r="F76" s="67"/>
-      <c r="G76" s="67"/>
-      <c r="H76" s="67"/>
-      <c r="I76" s="67"/>
-      <c r="J76" s="67"/>
-      <c r="K76" s="67"/>
-      <c r="L76" s="92" t="s">
-        <v>185</v>
-      </c>
-      <c r="M76" s="67" t="str">
-        <f>B43 &amp; "/time range/" &amp; "CO2"</f>
-        <v>€/time range/CO2</v>
-      </c>
-      <c r="N76" s="104" t="s">
-        <v>185</v>
-      </c>
-      <c r="O76" s="67"/>
-      <c r="P76" s="67" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q76" s="67"/>
-      <c r="R76" s="67"/>
-      <c r="S76" s="67"/>
-      <c r="T76" s="92"/>
-      <c r="U76" s="67"/>
-      <c r="V76" s="66"/>
-      <c r="W76" s="67"/>
-      <c r="X76" s="67"/>
-      <c r="Y76" s="67"/>
-    </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A77" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="B77" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="C77" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="D77" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="E77" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="F77" s="35"/>
-      <c r="G77" s="35">
-        <v>-1</v>
-      </c>
-      <c r="H77" s="35"/>
-      <c r="I77" s="35"/>
-      <c r="J77" s="35"/>
-      <c r="K77" s="35"/>
-      <c r="L77" s="95" t="s">
-        <v>185</v>
-      </c>
-      <c r="M77" s="35"/>
-      <c r="N77" s="95" t="s">
-        <v>185</v>
-      </c>
-      <c r="O77" s="35"/>
-      <c r="P77" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q77" s="35"/>
-      <c r="R77" s="35"/>
-      <c r="S77" s="35"/>
-      <c r="T77" s="35"/>
-      <c r="U77" s="35"/>
-      <c r="V77" s="35"/>
-      <c r="W77" s="35"/>
-      <c r="X77" s="35"/>
-      <c r="Y77" s="35"/>
-    </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A78" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="B78" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="C78" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="D78" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="E78" s="35"/>
-      <c r="F78" s="35"/>
-      <c r="G78" s="35"/>
-      <c r="H78" s="35"/>
-      <c r="I78" s="35"/>
-      <c r="J78" s="35"/>
-      <c r="K78" s="35"/>
-      <c r="L78" s="95" t="s">
-        <v>185</v>
-      </c>
-      <c r="M78" s="35"/>
-      <c r="N78" s="95" t="s">
-        <v>185</v>
-      </c>
-      <c r="O78" s="35"/>
-      <c r="P78" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q78" s="35"/>
-      <c r="R78" s="35"/>
-      <c r="S78" s="35" t="b">
-        <v>1</v>
-      </c>
-      <c r="T78" s="35"/>
-      <c r="U78" s="35"/>
-      <c r="V78" s="35"/>
-      <c r="W78" s="35"/>
-      <c r="X78" s="35"/>
-      <c r="Y78" s="35"/>
-    </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A79" s="107" t="s">
-        <v>70</v>
-      </c>
-      <c r="B79" s="107" t="s">
-        <v>198</v>
-      </c>
-      <c r="C79" s="107" t="s">
-        <v>200</v>
-      </c>
-      <c r="D79" s="107" t="s">
-        <v>88</v>
-      </c>
-      <c r="E79" s="107" t="s">
-        <v>201</v>
-      </c>
-      <c r="F79" s="107"/>
-      <c r="G79" s="107">
-        <v>-1</v>
-      </c>
-      <c r="H79" s="107"/>
-      <c r="I79" s="107"/>
-      <c r="J79" s="107"/>
-      <c r="K79" s="107"/>
-      <c r="L79" s="108" t="s">
-        <v>185</v>
-      </c>
-      <c r="M79" s="107"/>
-      <c r="N79" s="108" t="s">
-        <v>185</v>
-      </c>
-      <c r="O79" s="107"/>
-      <c r="P79" s="107" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q79" s="107"/>
-      <c r="R79" s="107"/>
-      <c r="S79" s="107"/>
-      <c r="T79" s="107"/>
-      <c r="U79" s="107"/>
-      <c r="V79" s="107"/>
-      <c r="W79" s="107"/>
-      <c r="X79" s="107"/>
-      <c r="Y79" s="107"/>
-    </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A80" s="107" t="s">
-        <v>71</v>
-      </c>
-      <c r="B80" s="107" t="s">
-        <v>199</v>
-      </c>
-      <c r="C80" s="107" t="s">
-        <v>200</v>
-      </c>
-      <c r="D80" s="107" t="s">
-        <v>201</v>
-      </c>
-      <c r="E80" s="107"/>
-      <c r="F80" s="107"/>
-      <c r="G80" s="107"/>
-      <c r="H80" s="107"/>
-      <c r="I80" s="107"/>
-      <c r="J80" s="107"/>
-      <c r="K80" s="107"/>
-      <c r="L80" s="108" t="s">
-        <v>185</v>
-      </c>
-      <c r="M80" s="107"/>
-      <c r="N80" s="108" t="s">
-        <v>185</v>
-      </c>
-      <c r="O80" s="107"/>
-      <c r="P80" s="107" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q80" s="107"/>
-      <c r="R80" s="107"/>
-      <c r="S80" s="107" t="b">
-        <v>1</v>
-      </c>
-      <c r="T80" s="107"/>
-      <c r="U80" s="107"/>
-      <c r="V80" s="107"/>
-      <c r="W80" s="107"/>
-      <c r="X80" s="107"/>
-      <c r="Y80" s="107"/>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A81" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="B81" s="45" t="s">
-        <v>202</v>
-      </c>
-      <c r="C81" s="45" t="s">
-        <v>204</v>
-      </c>
-      <c r="D81" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="E81" s="45" t="s">
-        <v>205</v>
-      </c>
-      <c r="F81" s="45"/>
-      <c r="G81" s="45">
-        <v>-1</v>
-      </c>
-      <c r="H81" s="45"/>
-      <c r="I81" s="45"/>
-      <c r="J81" s="45"/>
-      <c r="K81" s="45"/>
-      <c r="L81" s="109" t="s">
-        <v>185</v>
-      </c>
-      <c r="M81" s="45"/>
-      <c r="N81" s="109" t="s">
-        <v>185</v>
-      </c>
-      <c r="O81" s="45"/>
-      <c r="P81" s="45" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q81" s="45"/>
-      <c r="R81" s="45"/>
-      <c r="S81" s="45"/>
-      <c r="T81" s="45"/>
-      <c r="U81" s="45"/>
-      <c r="V81" s="45"/>
-      <c r="W81" s="45"/>
-      <c r="X81" s="45"/>
-      <c r="Y81" s="45"/>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A82" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="B82" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="C82" s="45" t="s">
-        <v>204</v>
-      </c>
-      <c r="D82" s="45" t="s">
-        <v>205</v>
-      </c>
-      <c r="E82" s="45"/>
-      <c r="F82" s="45"/>
-      <c r="G82" s="45"/>
-      <c r="H82" s="45"/>
-      <c r="I82" s="45"/>
-      <c r="J82" s="45"/>
-      <c r="K82" s="45"/>
-      <c r="L82" s="109" t="s">
-        <v>185</v>
-      </c>
-      <c r="M82" s="45"/>
-      <c r="N82" s="109" t="s">
-        <v>185</v>
-      </c>
-      <c r="O82" s="45"/>
-      <c r="P82" s="45" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q82" s="45"/>
-      <c r="R82" s="45"/>
-      <c r="S82" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="T82" s="45"/>
-      <c r="U82" s="45"/>
-      <c r="V82" s="45"/>
-      <c r="W82" s="45"/>
-      <c r="X82" s="45"/>
-      <c r="Y82" s="45"/>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A83" s="110" t="s">
-        <v>70</v>
-      </c>
-      <c r="B83" s="110" t="s">
-        <v>206</v>
-      </c>
-      <c r="C83" s="110" t="s">
-        <v>209</v>
-      </c>
-      <c r="D83" s="110" t="s">
-        <v>88</v>
-      </c>
-      <c r="E83" s="110" t="s">
-        <v>210</v>
-      </c>
-      <c r="F83" s="110"/>
-      <c r="G83" s="110"/>
-      <c r="H83" s="110"/>
-      <c r="I83" s="110"/>
-      <c r="J83" s="110"/>
-      <c r="K83" s="110"/>
-      <c r="L83" s="111" t="s">
-        <v>185</v>
-      </c>
-      <c r="M83" s="110"/>
-      <c r="N83" s="111" t="s">
-        <v>185</v>
-      </c>
-      <c r="O83" s="110"/>
-      <c r="P83" s="110" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q83" s="110"/>
-      <c r="R83" s="110"/>
-      <c r="S83" s="110"/>
-      <c r="T83" s="110"/>
-      <c r="U83" s="110"/>
-      <c r="V83" s="110"/>
-      <c r="W83" s="110"/>
-      <c r="X83" s="110"/>
-      <c r="Y83" s="110"/>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A84" s="110" t="s">
-        <v>71</v>
-      </c>
-      <c r="B84" s="110" t="s">
-        <v>207</v>
-      </c>
-      <c r="C84" s="110" t="s">
-        <v>209</v>
-      </c>
-      <c r="D84" s="110" t="s">
-        <v>210</v>
-      </c>
-      <c r="E84" s="110"/>
-      <c r="F84" s="110"/>
-      <c r="G84" s="110"/>
-      <c r="H84" s="110"/>
-      <c r="I84" s="110"/>
-      <c r="J84" s="110"/>
-      <c r="K84" s="110"/>
-      <c r="L84" s="111" t="s">
-        <v>185</v>
-      </c>
-      <c r="M84" s="110"/>
-      <c r="N84" s="111" t="s">
-        <v>185</v>
-      </c>
-      <c r="O84" s="110"/>
-      <c r="P84" s="110" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q84" s="110"/>
-      <c r="R84" s="110"/>
-      <c r="S84" s="110" t="b">
-        <v>1</v>
-      </c>
-      <c r="T84" s="110"/>
-      <c r="U84" s="110"/>
-      <c r="V84" s="110"/>
-      <c r="W84" s="110"/>
-      <c r="X84" s="110"/>
-      <c r="Y84" s="110"/>
-    </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A85" s="110" t="s">
-        <v>70</v>
-      </c>
-      <c r="B85" s="110" t="s">
-        <v>208</v>
-      </c>
-      <c r="C85" s="110" t="s">
-        <v>209</v>
-      </c>
-      <c r="D85" s="110" t="s">
-        <v>210</v>
-      </c>
-      <c r="E85" s="110" t="s">
-        <v>88</v>
-      </c>
-      <c r="F85" s="110"/>
-      <c r="G85" s="110"/>
-      <c r="H85" s="110"/>
-      <c r="I85" s="110"/>
-      <c r="J85" s="110"/>
-      <c r="K85" s="110"/>
-      <c r="L85" s="111" t="s">
-        <v>185</v>
-      </c>
-      <c r="M85" s="110"/>
-      <c r="N85" s="111" t="s">
-        <v>185</v>
-      </c>
-      <c r="O85" s="110"/>
-      <c r="P85" s="110" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q85" s="110"/>
-      <c r="R85" s="110"/>
-      <c r="S85" s="110"/>
-      <c r="T85" s="110"/>
-      <c r="U85" s="110"/>
-      <c r="V85" s="110"/>
-      <c r="W85" s="110"/>
-      <c r="X85" s="110"/>
-      <c r="Y85" s="110"/>
-    </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A86" s="112" t="s">
-        <v>70</v>
-      </c>
-      <c r="B86" s="112" t="s">
-        <v>211</v>
-      </c>
-      <c r="C86" s="112" t="s">
-        <v>214</v>
-      </c>
-      <c r="D86" s="112" t="s">
-        <v>88</v>
-      </c>
-      <c r="E86" s="112" t="s">
-        <v>210</v>
-      </c>
-      <c r="F86" s="112"/>
-      <c r="G86" s="112"/>
-      <c r="H86" s="112"/>
-      <c r="I86" s="112"/>
-      <c r="J86" s="112"/>
-      <c r="K86" s="112"/>
-      <c r="L86" s="113" t="s">
-        <v>185</v>
-      </c>
-      <c r="M86" s="112"/>
-      <c r="N86" s="113" t="s">
-        <v>185</v>
-      </c>
-      <c r="O86" s="112"/>
-      <c r="P86" s="112" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q86" s="112"/>
-      <c r="R86" s="112"/>
-      <c r="S86" s="112"/>
-      <c r="T86" s="112"/>
-      <c r="U86" s="112"/>
-      <c r="V86" s="112"/>
-      <c r="W86" s="112"/>
-      <c r="X86" s="112"/>
-      <c r="Y86" s="112"/>
-    </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A87" s="112" t="s">
-        <v>71</v>
-      </c>
-      <c r="B87" s="112" t="s">
-        <v>212</v>
-      </c>
-      <c r="C87" s="112" t="s">
-        <v>214</v>
-      </c>
-      <c r="D87" s="112" t="s">
-        <v>215</v>
-      </c>
-      <c r="E87" s="112"/>
-      <c r="F87" s="112"/>
-      <c r="G87" s="112"/>
-      <c r="H87" s="112"/>
-      <c r="I87" s="112"/>
-      <c r="J87" s="112"/>
-      <c r="K87" s="112"/>
-      <c r="L87" s="113" t="s">
-        <v>185</v>
-      </c>
-      <c r="M87" s="112"/>
-      <c r="N87" s="113" t="s">
-        <v>185</v>
-      </c>
-      <c r="O87" s="112"/>
-      <c r="P87" s="112" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q87" s="112"/>
-      <c r="R87" s="112"/>
-      <c r="S87" s="112" t="b">
-        <v>1</v>
-      </c>
-      <c r="T87" s="112"/>
-      <c r="U87" s="112"/>
-      <c r="V87" s="112"/>
-      <c r="W87" s="112"/>
-      <c r="X87" s="112"/>
-      <c r="Y87" s="112"/>
-    </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A88" s="112" t="s">
-        <v>70</v>
-      </c>
-      <c r="B88" s="112" t="s">
-        <v>213</v>
-      </c>
-      <c r="C88" s="112" t="s">
-        <v>214</v>
-      </c>
-      <c r="D88" s="112" t="s">
-        <v>215</v>
-      </c>
-      <c r="E88" s="112" t="s">
-        <v>88</v>
-      </c>
-      <c r="F88" s="112"/>
-      <c r="G88" s="112"/>
-      <c r="H88" s="112"/>
-      <c r="I88" s="112"/>
-      <c r="J88" s="112"/>
-      <c r="K88" s="112"/>
-      <c r="L88" s="113" t="s">
-        <v>185</v>
-      </c>
-      <c r="M88" s="112"/>
-      <c r="N88" s="113" t="s">
-        <v>185</v>
-      </c>
-      <c r="O88" s="112"/>
-      <c r="P88" s="112" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q88" s="112"/>
-      <c r="R88" s="112"/>
-      <c r="S88" s="112"/>
-      <c r="T88" s="112"/>
-      <c r="U88" s="112"/>
-      <c r="V88" s="112"/>
-      <c r="W88" s="112"/>
-      <c r="X88" s="112"/>
-      <c r="Y88" s="112"/>
-    </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>66</v>
-      </c>
-      <c r="O94" s="9"/>
-      <c r="P94" s="9"/>
-      <c r="Q94" s="9"/>
-    </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="37" t="s">
+      <c r="C150" s="43">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D150" s="44"/>
+      <c r="E150" s="44"/>
+      <c r="F150" s="44"/>
+      <c r="G150" s="45"/>
+      <c r="H150" s="46"/>
+      <c r="I150" s="46"/>
+      <c r="J150" s="46"/>
+      <c r="K150" s="46"/>
+      <c r="L150" s="46"/>
+      <c r="M150" s="46"/>
+      <c r="N150" s="47"/>
+      <c r="O150" s="47"/>
+      <c r="P150" s="47"/>
+      <c r="Q150" s="87"/>
+      <c r="R150" s="87"/>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A151" s="37"/>
+      <c r="B151" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="E100" s="36"/>
-      <c r="F100" s="36"/>
-      <c r="G100" s="36"/>
-      <c r="H100" s="36"/>
-      <c r="I100" s="36"/>
-      <c r="J100" s="36"/>
-      <c r="K100" s="36"/>
-      <c r="L100" s="36"/>
-      <c r="M100" s="2"/>
-      <c r="N100" s="2"/>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A101" s="37"/>
-      <c r="B101" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="C101" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="E101" s="36"/>
-      <c r="F101" s="36"/>
-      <c r="G101" s="36"/>
-      <c r="H101" s="36"/>
-      <c r="I101" s="36"/>
-      <c r="J101" s="36"/>
-      <c r="K101" s="36"/>
-      <c r="L101" s="36"/>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A102" s="37"/>
-      <c r="B102" s="39"/>
-      <c r="C102" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="E102" s="36"/>
-      <c r="F102" s="36"/>
-      <c r="G102" s="36"/>
-      <c r="H102" s="36"/>
-      <c r="I102" s="36"/>
-      <c r="J102" s="36"/>
-      <c r="K102" s="36"/>
-      <c r="L102" s="36"/>
-      <c r="M102" s="2"/>
-      <c r="N102" s="2"/>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A103" s="37"/>
-      <c r="B103" s="39"/>
-      <c r="C103" s="41"/>
-      <c r="E103" s="36"/>
-      <c r="F103" s="36"/>
-      <c r="G103" s="36"/>
-      <c r="H103" s="36"/>
-      <c r="I103" s="36"/>
-      <c r="J103" s="36"/>
-      <c r="K103" s="36"/>
-      <c r="L103" s="36"/>
-      <c r="M103" s="2"/>
-      <c r="N103" s="2"/>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A104" s="37"/>
-      <c r="B104" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="C104" s="68" t="s">
-        <v>173</v>
-      </c>
-      <c r="E104" s="36"/>
-      <c r="F104" s="36"/>
-      <c r="G104" s="36"/>
-      <c r="H104" s="36"/>
-      <c r="I104" s="36"/>
-      <c r="J104" s="36"/>
-      <c r="K104" s="36"/>
-      <c r="L104" s="36"/>
-      <c r="M104" s="2"/>
-      <c r="N104" s="2"/>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A105" s="37"/>
-      <c r="B105" s="38"/>
-      <c r="C105" s="79" t="s">
-        <v>172</v>
-      </c>
-      <c r="E105" s="36"/>
-      <c r="F105" s="36"/>
-      <c r="G105" s="36"/>
-      <c r="H105" s="36"/>
-      <c r="I105" s="36"/>
-      <c r="J105" s="36"/>
-      <c r="K105" s="36"/>
-      <c r="L105" s="36"/>
-      <c r="M105" s="2"/>
-      <c r="N105" s="2"/>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A106" s="37"/>
-      <c r="B106" s="38"/>
-      <c r="C106" s="79"/>
-      <c r="E106" s="36"/>
-      <c r="F106" s="36"/>
-      <c r="G106" s="36"/>
-      <c r="H106" s="36"/>
-      <c r="I106" s="36"/>
-      <c r="J106" s="36"/>
-      <c r="K106" s="36"/>
-      <c r="L106" s="36"/>
-      <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A107" s="37"/>
-      <c r="B107" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="C107" s="86" t="s">
-        <v>163</v>
-      </c>
-      <c r="E107" s="36"/>
-      <c r="F107" s="36"/>
-      <c r="G107" s="36"/>
-      <c r="H107" s="36"/>
-      <c r="I107" s="36"/>
-      <c r="J107" s="36"/>
-      <c r="K107" s="36"/>
-      <c r="L107" s="36"/>
-      <c r="M107" s="2"/>
-      <c r="N107" s="2"/>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A108" s="37"/>
-      <c r="B108" s="38"/>
-      <c r="C108" s="79" t="s">
-        <v>175</v>
-      </c>
-      <c r="E108" s="36"/>
-      <c r="F108" s="36"/>
-      <c r="G108" s="36"/>
-      <c r="H108" s="36"/>
-      <c r="I108" s="36"/>
-      <c r="J108" s="36"/>
-      <c r="K108" s="36"/>
-      <c r="L108" s="36"/>
-      <c r="M108" s="2"/>
-      <c r="N108" s="2"/>
-    </row>
-    <row r="109" spans="1:18" s="11" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="37"/>
-      <c r="B109" s="39"/>
-      <c r="C109" s="41"/>
-      <c r="D109"/>
-      <c r="E109" s="36"/>
-      <c r="F109" s="36"/>
-      <c r="G109" s="36"/>
-      <c r="H109" s="36"/>
-      <c r="I109" s="36"/>
-      <c r="J109" s="36"/>
-      <c r="K109" s="36"/>
-      <c r="L109" s="36"/>
-      <c r="M109" s="2"/>
-      <c r="N109" s="2"/>
-      <c r="O109"/>
-      <c r="P109"/>
-      <c r="Q109"/>
-      <c r="R109"/>
-    </row>
-    <row r="110" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="37"/>
-      <c r="B110" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="C110" t="s">
-        <v>140</v>
-      </c>
-      <c r="E110" s="36"/>
-      <c r="F110" s="36"/>
-      <c r="G110" s="36"/>
-      <c r="H110" s="36"/>
-      <c r="I110" s="36"/>
-      <c r="J110" s="36"/>
-      <c r="K110" s="36"/>
-      <c r="L110" s="36"/>
-      <c r="M110" s="2"/>
-      <c r="N110" s="2"/>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A111" s="37"/>
-      <c r="B111" s="38"/>
-      <c r="C111" s="65" t="s">
-        <v>139</v>
-      </c>
-      <c r="E111" s="36"/>
-      <c r="F111" s="36"/>
-      <c r="G111" s="36"/>
-      <c r="H111" s="36"/>
-      <c r="I111" s="36"/>
-      <c r="J111" s="36"/>
-      <c r="K111" s="36"/>
-      <c r="L111" s="36"/>
-      <c r="M111" s="2"/>
-      <c r="N111" s="2"/>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A112" s="37"/>
-      <c r="B112" s="38"/>
-      <c r="C112" s="65"/>
-      <c r="E112" s="36"/>
-      <c r="F112" s="36"/>
-      <c r="G112" s="36"/>
-      <c r="H112" s="36"/>
-      <c r="I112" s="36"/>
-      <c r="J112" s="36"/>
-      <c r="K112" s="36"/>
-      <c r="L112" s="36"/>
-      <c r="M112" s="2"/>
-      <c r="N112" s="2"/>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A113" s="37"/>
-      <c r="B113" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="C113" s="86" t="s">
-        <v>171</v>
-      </c>
-      <c r="E113" s="36"/>
-      <c r="F113" s="36"/>
-      <c r="G113" s="36"/>
-      <c r="H113" s="36"/>
-      <c r="I113" s="36"/>
-      <c r="J113" s="36"/>
-      <c r="K113" s="36"/>
-      <c r="L113" s="36"/>
-      <c r="M113" s="2"/>
-      <c r="N113" s="2"/>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A114" s="37"/>
-      <c r="B114" s="38"/>
-      <c r="C114" s="65" t="s">
-        <v>170</v>
-      </c>
-      <c r="E114" s="36"/>
-      <c r="F114" s="36"/>
-      <c r="G114" s="36"/>
-      <c r="H114" s="36"/>
-      <c r="I114" s="36"/>
-      <c r="J114" s="36"/>
-      <c r="K114" s="36"/>
-      <c r="L114" s="36"/>
-      <c r="M114" s="2"/>
-      <c r="N114" s="2"/>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A115" s="37"/>
-      <c r="E115" s="36"/>
-      <c r="F115" s="36"/>
-      <c r="G115" s="36"/>
-      <c r="H115" s="36"/>
-      <c r="I115" s="36"/>
-      <c r="J115" s="36"/>
-      <c r="K115" s="36"/>
-      <c r="L115" s="36"/>
-      <c r="M115" s="2"/>
-      <c r="N115" s="2"/>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A116" s="37"/>
-      <c r="B116" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="C116" t="s">
-        <v>142</v>
-      </c>
-      <c r="F116" s="36"/>
-      <c r="G116" s="36"/>
-      <c r="H116" s="36"/>
-      <c r="I116" s="36"/>
-      <c r="J116" s="36"/>
-      <c r="K116" s="36"/>
-      <c r="L116" s="36"/>
-      <c r="M116" s="2"/>
-      <c r="N116" s="2"/>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A117" s="37"/>
-      <c r="B117" s="38"/>
-      <c r="C117" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="F117" s="36"/>
-      <c r="G117" s="36"/>
-      <c r="H117" s="36"/>
-      <c r="I117" s="36"/>
-      <c r="J117" s="36"/>
-      <c r="K117" s="36"/>
-      <c r="L117" s="36"/>
-      <c r="M117" s="2"/>
-      <c r="N117" s="2"/>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A118" s="37"/>
-      <c r="B118" s="38"/>
-      <c r="C118" s="39"/>
-      <c r="F118" s="36"/>
-      <c r="G118" s="36"/>
-      <c r="H118" s="36"/>
-      <c r="I118" s="36"/>
-      <c r="J118" s="36"/>
-      <c r="K118" s="36"/>
-      <c r="L118" s="36"/>
-      <c r="M118" s="2"/>
-      <c r="N118" s="2"/>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A119" s="37"/>
-      <c r="B119" s="39"/>
-      <c r="E119" s="36"/>
-      <c r="F119" s="36"/>
-      <c r="G119" s="36"/>
-      <c r="H119" s="36"/>
-      <c r="I119" s="36"/>
-      <c r="J119" s="36"/>
-      <c r="K119" s="36"/>
-      <c r="L119" s="36"/>
-      <c r="M119" s="2"/>
-      <c r="N119" s="2"/>
-    </row>
-    <row r="120" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A120" s="37"/>
-      <c r="B120" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="C120" s="43">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="D120" s="44"/>
-      <c r="E120" s="44"/>
-      <c r="F120" s="44"/>
-      <c r="G120" s="45"/>
-      <c r="H120" s="46"/>
-      <c r="I120" s="46"/>
-      <c r="J120" s="46"/>
-      <c r="K120" s="46"/>
-      <c r="L120" s="46"/>
-      <c r="M120" s="46"/>
-      <c r="N120" s="47"/>
-      <c r="O120" s="47"/>
-      <c r="P120" s="47"/>
-      <c r="Q120" s="87"/>
-      <c r="R120" s="87"/>
-    </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A121" s="37"/>
-      <c r="B121" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="C121" s="45">
+      <c r="C151" s="45">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D121" s="46"/>
-      <c r="E121" s="46"/>
-      <c r="F121" s="46"/>
-      <c r="G121" s="46"/>
-      <c r="H121" s="46"/>
-      <c r="I121" s="46"/>
-      <c r="J121" s="46"/>
-      <c r="K121" s="46"/>
-      <c r="L121" s="46"/>
-      <c r="M121" s="46"/>
-      <c r="N121" s="46"/>
-      <c r="O121" s="46"/>
-      <c r="P121" s="46"/>
-      <c r="Q121" s="87"/>
-      <c r="R121" s="87"/>
-    </row>
-    <row r="122" spans="1:18" ht="48" x14ac:dyDescent="0.2">
-      <c r="A122" s="2"/>
-      <c r="B122" s="47" t="s">
+      <c r="D151" s="46"/>
+      <c r="E151" s="46"/>
+      <c r="F151" s="46"/>
+      <c r="G151" s="46"/>
+      <c r="H151" s="46"/>
+      <c r="I151" s="46"/>
+      <c r="J151" s="46"/>
+      <c r="K151" s="46"/>
+      <c r="L151" s="46"/>
+      <c r="M151" s="46"/>
+      <c r="N151" s="46"/>
+      <c r="O151" s="46"/>
+      <c r="P151" s="46"/>
+      <c r="Q151" s="87"/>
+      <c r="R151" s="87"/>
+    </row>
+    <row r="152" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+      <c r="A152" s="2"/>
+      <c r="B152" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="C122" s="48" t="str">
+      <c r="C152" s="48" t="str">
         <f xml:space="preserve"> "Overnight cost [" &amp; B43 &amp; "/" &amp; B41 &amp; "]"</f>
         <v>Overnight cost [€/MW]</v>
       </c>
-      <c r="D122" s="47" t="str">
+      <c r="D152" s="47" t="str">
         <f xml:space="preserve"> "Fixed O&amp;M cost ["  &amp; B43 &amp; "/" &amp; B41 &amp; "year]"</f>
         <v>Fixed O&amp;M cost [€/MWyear]</v>
       </c>
-      <c r="E122" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="F122" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="G122" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="H122" s="49" t="str">
+      <c r="E152" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="F152" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="G152" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="H152" s="49" t="str">
         <f xml:space="preserve"> "Annual fixed costs [" &amp;B43 &amp; "/year]"</f>
         <v>Annual fixed costs [€/year]</v>
       </c>
-      <c r="I122" s="47" t="str">
+      <c r="I152" s="47" t="str">
         <f xml:space="preserve"> "Variable O&amp;M [" &amp; B43 &amp; "/" &amp; B41 &amp; B40 &amp; "]"</f>
         <v>Variable O&amp;M [€/MWh]</v>
       </c>
-      <c r="J122" s="47" t="str">
+      <c r="J152" s="47" t="str">
         <f xml:space="preserve"> "Fuel cost [" &amp; B43 &amp; "/" &amp; B41 &amp; B40 &amp; "]"</f>
         <v>Fuel cost [€/MWh]</v>
       </c>
-      <c r="K122" s="46" t="s">
+      <c r="K152" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="L152" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="M152" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="N152" s="47"/>
+      <c r="O152" s="47"/>
+      <c r="P152" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q152" s="88" t="s">
+        <v>170</v>
+      </c>
+      <c r="R152" s="87"/>
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B153" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="L122" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="M122" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="N122" s="47"/>
-      <c r="O122" s="47"/>
-      <c r="P122" s="48" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q122" s="88" t="s">
-        <v>176</v>
-      </c>
-      <c r="R122" s="87"/>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B123" s="45" t="s">
-        <v>125</v>
-      </c>
-      <c r="C123" s="50">
+      <c r="C153" s="50">
         <f>103100</f>
         <v>103100</v>
       </c>
-      <c r="D123" s="45">
-        <f>1.5%*C123</f>
+      <c r="D153" s="45">
+        <f>1.5%*C153</f>
         <v>1546.5</v>
       </c>
-      <c r="E123" s="45"/>
-      <c r="F123" s="45">
+      <c r="E153" s="45"/>
+      <c r="F153" s="45">
         <v>30</v>
       </c>
-      <c r="G123" s="45">
-        <f>C121*(1+C121)^F123/((1+C121)^F123-1)</f>
+      <c r="G153" s="45">
+        <f>C151*(1+C151)^F153/((1+C151)^F153-1)</f>
         <v>8.0586403511111196E-2</v>
       </c>
-      <c r="H123" s="51">
-        <f>(C123+D123)*G123</f>
+      <c r="H153" s="51">
+        <f>(C153+D153)*G153</f>
         <v>8433.0850750254976</v>
       </c>
-      <c r="I123" s="50"/>
-      <c r="J123" s="45"/>
-      <c r="K123" s="45"/>
-      <c r="L123" s="45"/>
-      <c r="M123" s="50">
-        <f>H123/8760/C120</f>
+      <c r="I153" s="50"/>
+      <c r="J153" s="45"/>
+      <c r="K153" s="45"/>
+      <c r="L153" s="45"/>
+      <c r="M153" s="50">
+        <f>H153/8760/C150</f>
         <v>0.84445696898036315</v>
       </c>
-      <c r="N123" s="45" t="str">
+      <c r="N153" s="45" t="str">
         <f>B43 &amp; "/" &amp; B40 &amp; "/" &amp; B41</f>
         <v>€/h/MW</v>
       </c>
-      <c r="O123" s="45"/>
-      <c r="P123" s="50"/>
-      <c r="Q123" s="87"/>
-      <c r="R123" s="87"/>
-    </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B124" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="C124" s="45">
+      <c r="O153" s="45"/>
+      <c r="P153" s="50"/>
+      <c r="Q153" s="87"/>
+      <c r="R153" s="87"/>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B154" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="C154" s="45">
         <f>1612000</f>
         <v>1612000</v>
       </c>
-      <c r="D124" s="45">
-        <f>12500*C120</f>
+      <c r="D154" s="45">
+        <f>12500*C150</f>
         <v>14249.999999999998</v>
       </c>
-      <c r="E124" s="52">
+      <c r="E154" s="52">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F124" s="45">
+      <c r="F154" s="45">
         <v>30</v>
       </c>
-      <c r="G124" s="45">
-        <f>C121*(1+C121)^F124/((1+C121)^F124-1)</f>
+      <c r="G154" s="45">
+        <f>C151*(1+C151)^F154/((1+C151)^F154-1)</f>
         <v>8.0586403511111196E-2</v>
       </c>
-      <c r="H124" s="51">
-        <f>((C124+E124*C124)*G124+D124)</f>
+      <c r="H154" s="51">
+        <f>((C154+E154*C154)*G154+D154)</f>
         <v>146103.86169680991</v>
       </c>
-      <c r="I124" s="50"/>
-      <c r="J124" s="45"/>
-      <c r="K124" s="45">
+      <c r="I154" s="50"/>
+      <c r="J154" s="45"/>
+      <c r="K154" s="45">
         <v>0.81</v>
       </c>
-      <c r="L124" s="45"/>
-      <c r="M124" s="50">
-        <f>H124/8760/C120</f>
+      <c r="L154" s="45"/>
+      <c r="M154" s="50">
+        <f>H154/8760/C150</f>
         <v>14.630283355043851</v>
       </c>
-      <c r="N124" s="45" t="str">
+      <c r="N154" s="45" t="str">
         <f>B43 &amp; "/" &amp; B40 &amp; "/" &amp; B41</f>
         <v>€/h/MW</v>
       </c>
-      <c r="O124" s="45"/>
-      <c r="P124" s="50">
-        <f>0.0003/C120</f>
+      <c r="O154" s="45"/>
+      <c r="P154" s="50">
+        <f>0.0003/C150</f>
         <v>2.631578947368421E-4</v>
       </c>
-      <c r="Q124" s="87"/>
-      <c r="R124" s="87"/>
-    </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B125" s="51"/>
-      <c r="C125" s="45"/>
-      <c r="D125" s="45"/>
-      <c r="E125" s="52"/>
-      <c r="F125" s="45"/>
-      <c r="G125" s="45"/>
-      <c r="H125" s="51"/>
-      <c r="I125" s="45"/>
-      <c r="J125" s="45"/>
-      <c r="K125" s="45"/>
-      <c r="L125" s="45"/>
-      <c r="M125" s="50"/>
-      <c r="N125" s="45"/>
-      <c r="O125" s="51"/>
-      <c r="P125" s="45"/>
-      <c r="Q125" s="87"/>
-      <c r="R125" s="87"/>
-    </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B126" s="51" t="s">
-        <v>146</v>
-      </c>
-      <c r="C126" s="45">
+      <c r="Q154" s="87"/>
+      <c r="R154" s="87"/>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B155" s="51"/>
+      <c r="C155" s="45"/>
+      <c r="D155" s="45"/>
+      <c r="E155" s="52"/>
+      <c r="F155" s="45"/>
+      <c r="G155" s="45"/>
+      <c r="H155" s="51"/>
+      <c r="I155" s="45"/>
+      <c r="J155" s="45"/>
+      <c r="K155" s="45"/>
+      <c r="L155" s="45"/>
+      <c r="M155" s="50"/>
+      <c r="N155" s="45"/>
+      <c r="O155" s="51"/>
+      <c r="P155" s="45"/>
+      <c r="Q155" s="87"/>
+      <c r="R155" s="87"/>
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B156" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="C156" s="45">
         <v>1969000</v>
       </c>
-      <c r="D126" s="45">
+      <c r="D156" s="45">
         <v>53000</v>
       </c>
-      <c r="E126" s="52"/>
-      <c r="F126" s="45">
+      <c r="E156" s="52"/>
+      <c r="F156" s="45">
         <v>30</v>
       </c>
-      <c r="G126" s="45">
-        <f>C121*(1+C121)^F126/((1+C121)^F126-1)</f>
+      <c r="G156" s="45">
+        <f>C151*(1+C151)^F156/((1+C151)^F156-1)</f>
         <v>8.0586403511111196E-2</v>
       </c>
-      <c r="H126" s="51">
-        <f>(C126+D126)*G126</f>
+      <c r="H156" s="51">
+        <f>(C156+D156)*G156</f>
         <v>162945.70789946683</v>
       </c>
-      <c r="I126" s="45">
+      <c r="I156" s="45">
         <v>9</v>
       </c>
-      <c r="J126" s="45">
+      <c r="J156" s="45">
         <v>20</v>
       </c>
-      <c r="K126" s="45">
+      <c r="K156" s="45">
         <v>0.56000000000000005</v>
       </c>
-      <c r="L126" s="45"/>
-      <c r="M126" s="50">
-        <f>H126/8760/C120</f>
+      <c r="L156" s="45"/>
+      <c r="M156" s="50">
+        <f>H156/8760/C150</f>
         <v>16.31676158570324</v>
       </c>
-      <c r="N126" s="45" t="str">
+      <c r="N156" s="45" t="str">
         <f>B43 &amp; "/" &amp; B40 &amp; "/" &amp; B41</f>
         <v>€/h/MW</v>
       </c>
-      <c r="O126" s="51"/>
-      <c r="P126" s="45">
-        <f>(I126+J126/K126)/C120</f>
+      <c r="O156" s="51"/>
+      <c r="P156" s="45">
+        <f>(I156+J156/K156)/C150</f>
         <v>39.223057644110277</v>
       </c>
-      <c r="Q126" s="87"/>
-      <c r="R126" s="87"/>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B127" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="C127" s="45"/>
-      <c r="D127" s="45"/>
-      <c r="E127" s="52"/>
-      <c r="F127" s="45"/>
-      <c r="G127" s="45"/>
-      <c r="H127" s="51"/>
-      <c r="I127" s="45"/>
-      <c r="J127" s="45"/>
-      <c r="K127" s="45"/>
-      <c r="L127" s="45"/>
-      <c r="M127" s="50"/>
-      <c r="N127" s="45"/>
-      <c r="O127" s="45"/>
-      <c r="P127" s="45"/>
-      <c r="Q127" s="87"/>
-      <c r="R127" s="87"/>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B128" s="45"/>
-      <c r="C128" s="45">
+      <c r="Q156" s="87"/>
+      <c r="R156" s="87"/>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B157" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="C157" s="45"/>
+      <c r="D157" s="45"/>
+      <c r="E157" s="52"/>
+      <c r="F157" s="45"/>
+      <c r="G157" s="45"/>
+      <c r="H157" s="51"/>
+      <c r="I157" s="45"/>
+      <c r="J157" s="45"/>
+      <c r="K157" s="45"/>
+      <c r="L157" s="45"/>
+      <c r="M157" s="50"/>
+      <c r="N157" s="45"/>
+      <c r="O157" s="45"/>
+      <c r="P157" s="45"/>
+      <c r="Q157" s="87"/>
+      <c r="R157" s="87"/>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B158" s="45"/>
+      <c r="C158" s="45">
         <v>965000</v>
       </c>
-      <c r="D128" s="45">
+      <c r="D158" s="45">
         <v>27000</v>
       </c>
-      <c r="E128" s="52"/>
-      <c r="F128" s="45">
+      <c r="E158" s="52"/>
+      <c r="F158" s="45">
         <v>30</v>
       </c>
-      <c r="G128" s="45">
-        <f>C121*(1+C121)^F128/((1+C121)^F128-1)</f>
+      <c r="G158" s="45">
+        <f>C151*(1+C151)^F158/((1+C151)^F158-1)</f>
         <v>8.0586403511111196E-2</v>
       </c>
-      <c r="H128" s="51">
-        <f t="shared" ref="H128" si="0">(C128+D128)*G128</f>
+      <c r="H158" s="51">
+        <f>(C158+D158)*G158</f>
         <v>79941.712283022309</v>
       </c>
-      <c r="I128" s="45">
+      <c r="I158" s="45">
         <v>2</v>
       </c>
-      <c r="J128" s="45">
+      <c r="J158" s="45">
         <v>8</v>
       </c>
-      <c r="K128" s="45">
+      <c r="K158" s="45">
         <v>0.56000000000000005</v>
       </c>
-      <c r="L128" s="45"/>
-      <c r="M128" s="50">
-        <f>H128/8760/C120</f>
+      <c r="L158" s="45"/>
+      <c r="M158" s="50">
+        <f>H158/8760/C150</f>
         <v>8.0050581073281979</v>
       </c>
-      <c r="N128" s="45"/>
-      <c r="O128" s="45"/>
-      <c r="P128" s="45">
-        <f>(I128+J128/K128)/C120</f>
+      <c r="N158" s="45"/>
+      <c r="O158" s="45"/>
+      <c r="P158" s="45">
+        <f>(I158+J158/K158)/C150</f>
         <v>14.285714285714286</v>
       </c>
-      <c r="Q128" s="87"/>
-      <c r="R128" s="87"/>
-    </row>
-    <row r="129" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B129" s="45"/>
-      <c r="C129" s="45"/>
-      <c r="D129" s="45"/>
-      <c r="E129" s="52"/>
-      <c r="F129" s="45"/>
-      <c r="G129" s="45"/>
-      <c r="H129" s="51"/>
-      <c r="I129" s="45"/>
-      <c r="J129" s="45"/>
-      <c r="K129" s="45"/>
-      <c r="L129" s="45"/>
-      <c r="M129" s="50"/>
-      <c r="N129" s="45"/>
-      <c r="O129" s="45"/>
-      <c r="P129" s="45"/>
-      <c r="Q129" s="87"/>
-      <c r="R129" s="87"/>
-    </row>
-    <row r="130" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B130" s="45" t="s">
-        <v>168</v>
-      </c>
-      <c r="C130" s="45">
+      <c r="Q158" s="87"/>
+      <c r="R158" s="87"/>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B159" s="45"/>
+      <c r="C159" s="45"/>
+      <c r="D159" s="45"/>
+      <c r="E159" s="52"/>
+      <c r="F159" s="45"/>
+      <c r="G159" s="45"/>
+      <c r="H159" s="51"/>
+      <c r="I159" s="45"/>
+      <c r="J159" s="45"/>
+      <c r="K159" s="45"/>
+      <c r="L159" s="45"/>
+      <c r="M159" s="50"/>
+      <c r="N159" s="45"/>
+      <c r="O159" s="45"/>
+      <c r="P159" s="45"/>
+      <c r="Q159" s="87"/>
+      <c r="R159" s="87"/>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B160" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="C160" s="45">
         <v>5580000</v>
       </c>
-      <c r="D130" s="45">
+      <c r="D160" s="45">
         <v>162000</v>
       </c>
-      <c r="E130" s="52"/>
-      <c r="F130" s="45">
+      <c r="E160" s="52"/>
+      <c r="F160" s="45">
         <v>30</v>
       </c>
-      <c r="G130" s="45">
-        <f>C121*(1+C121)^F130/((1+C121)^F130-1)</f>
+      <c r="G160" s="45">
+        <f>C151*(1+C151)^F160/((1+C151)^F160-1)</f>
         <v>8.0586403511111196E-2</v>
       </c>
-      <c r="H130" s="51">
-        <f t="shared" ref="H130" si="1">(C130+D130)*G130</f>
+      <c r="H160" s="51">
+        <f>(C160+D160)*G160</f>
         <v>462727.12896080047</v>
       </c>
-      <c r="I130" s="45"/>
-      <c r="J130" s="45"/>
-      <c r="K130" s="45"/>
-      <c r="L130" s="45"/>
-      <c r="M130" s="50">
-        <f>H130/8760/C120</f>
+      <c r="I160" s="45"/>
+      <c r="J160" s="45"/>
+      <c r="K160" s="45"/>
+      <c r="L160" s="45"/>
+      <c r="M160" s="50">
+        <f>H160/8760/C150</f>
         <v>46.335729488183986</v>
       </c>
-      <c r="N130" s="45" t="str">
+      <c r="N160" s="45" t="str">
         <f>B43 &amp; "/" &amp; B40 &amp; "/" &amp; B41</f>
         <v>€/h/MW</v>
       </c>
-      <c r="O130" s="45"/>
-      <c r="P130" s="45">
-        <f>16.6/C120</f>
+      <c r="O160" s="45"/>
+      <c r="P160" s="45">
+        <f>16.6/C150</f>
         <v>14.561403508771932</v>
       </c>
-      <c r="Q130" s="87">
+      <c r="Q160" s="87">
         <v>-1.22</v>
       </c>
-      <c r="R130" s="87" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="131" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B131" s="45"/>
-      <c r="C131" s="45"/>
-      <c r="D131" s="45"/>
-      <c r="E131" s="52"/>
-      <c r="F131" s="45"/>
-      <c r="G131" s="45"/>
-      <c r="H131" s="45"/>
-      <c r="I131" s="45"/>
-      <c r="J131" s="45"/>
-      <c r="K131" s="45"/>
-      <c r="L131" s="45"/>
-      <c r="M131" s="45"/>
-      <c r="N131" s="45"/>
-      <c r="O131" s="45"/>
-      <c r="P131" s="45"/>
-      <c r="Q131" s="87"/>
-      <c r="R131" s="87"/>
-    </row>
-    <row r="132" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B132" s="45" t="s">
+      <c r="R160" s="87" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="161" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B161" s="45"/>
+      <c r="C161" s="45"/>
+      <c r="D161" s="45"/>
+      <c r="E161" s="52"/>
+      <c r="F161" s="45"/>
+      <c r="G161" s="45"/>
+      <c r="H161" s="45"/>
+      <c r="I161" s="45"/>
+      <c r="J161" s="45"/>
+      <c r="K161" s="45"/>
+      <c r="L161" s="45"/>
+      <c r="M161" s="45"/>
+      <c r="N161" s="45"/>
+      <c r="O161" s="45"/>
+      <c r="P161" s="45"/>
+      <c r="Q161" s="87"/>
+      <c r="R161" s="87"/>
+    </row>
+    <row r="162" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B162" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="C162" s="45"/>
+      <c r="D162" s="45"/>
+      <c r="E162" s="52"/>
+      <c r="F162" s="45"/>
+      <c r="G162" s="45"/>
+      <c r="H162" s="45"/>
+      <c r="I162" s="45"/>
+      <c r="J162" s="45"/>
+      <c r="K162" s="45"/>
+      <c r="L162" s="45"/>
+      <c r="M162" s="45"/>
+      <c r="N162" s="45"/>
+      <c r="O162" s="45"/>
+      <c r="P162" s="45">
+        <f>10000/C150</f>
+        <v>8771.9298245614045</v>
+      </c>
+      <c r="Q162" s="87"/>
+      <c r="R162" s="87"/>
+    </row>
+    <row r="163" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B163" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="C132" s="45"/>
-      <c r="D132" s="45"/>
-      <c r="E132" s="52"/>
-      <c r="F132" s="45"/>
-      <c r="G132" s="45"/>
-      <c r="H132" s="45"/>
-      <c r="I132" s="45"/>
-      <c r="J132" s="45"/>
-      <c r="K132" s="45"/>
-      <c r="L132" s="45"/>
-      <c r="M132" s="45"/>
-      <c r="N132" s="45"/>
-      <c r="O132" s="45"/>
-      <c r="P132" s="45">
-        <f>10000/C120</f>
-        <v>8771.9298245614045</v>
-      </c>
-      <c r="Q132" s="87"/>
-      <c r="R132" s="87"/>
-    </row>
-    <row r="133" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B133" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="C133" s="45"/>
-      <c r="D133" s="45"/>
-      <c r="E133" s="52"/>
-      <c r="F133" s="45"/>
-      <c r="G133" s="45"/>
-      <c r="H133" s="45">
-        <f>250000/C120</f>
+      <c r="C163" s="45"/>
+      <c r="D163" s="45"/>
+      <c r="E163" s="52"/>
+      <c r="F163" s="45"/>
+      <c r="G163" s="45"/>
+      <c r="H163" s="45">
+        <f>250000/C150</f>
         <v>219298.24561403511</v>
       </c>
-      <c r="I133" s="45"/>
-      <c r="J133" s="45"/>
-      <c r="K133" s="45"/>
-      <c r="L133" s="45"/>
-      <c r="M133" s="45"/>
-      <c r="N133" s="45"/>
-      <c r="O133" s="45"/>
-      <c r="P133" s="45"/>
-      <c r="Q133" s="87"/>
-      <c r="R133" s="87"/>
-    </row>
-    <row r="135" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B135" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="137" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="I137" s="8"/>
+      <c r="I163" s="45"/>
+      <c r="J163" s="45"/>
+      <c r="K163" s="45"/>
+      <c r="L163" s="45"/>
+      <c r="M163" s="45"/>
+      <c r="N163" s="45"/>
+      <c r="O163" s="45"/>
+      <c r="P163" s="45"/>
+      <c r="Q163" s="87"/>
+      <c r="R163" s="87"/>
+    </row>
+    <row r="165" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B165" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="167" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="I167" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C102" r:id="rId1" xr:uid="{7E7F7A7C-890D-0E40-A83F-FA5282D3540A}"/>
-    <hyperlink ref="C111" r:id="rId2" xr:uid="{6CD367E7-01A2-7E42-B77E-D24EE280FB31}"/>
-    <hyperlink ref="C114" r:id="rId3" tooltip="Persistent link using digital object identifier" xr:uid="{A940AA27-0F2E-054F-87F5-05988AF7C9B4}"/>
-    <hyperlink ref="B26" r:id="rId4" xr:uid="{D87F01B5-762F-B743-8E5C-245F04864626}"/>
+    <hyperlink ref="C141" r:id="rId1" xr:uid="{6CD367E7-01A2-7E42-B77E-D24EE280FB31}"/>
+    <hyperlink ref="C144" r:id="rId2" tooltip="Persistent link using digital object identifier" xr:uid="{A940AA27-0F2E-054F-87F5-05988AF7C9B4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>